--- a/data/2024/fid/FID-MUS-DE-12.xlsx
+++ b/data/2024/fid/FID-MUS-DE-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5975" uniqueCount="1488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5975" uniqueCount="1489">
   <si>
     <t>ZDBDID</t>
   </si>
@@ -301,10 +301,10 @@
     <t>1.1986 -</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>DE-1;DE-3-38;DE-14;DE-15;DE-19;DE-20;DE-21;DE-24;DE-Frei50;DE-26-030;DE-30;DE-31;DE-34-22;DE-35;DE-46;DE-107;DE-109;DE-290;DE-355;DE-384;DE-467;DE-468;DE-22;DE-517;DE-703;DE-Lg1;DE-1156;DE-60</t>
+    <t>31</t>
+  </si>
+  <si>
+    <t>DE-1;DE-3-38;DE-7;DE-14;DE-15;DE-19;DE-20;DE-21;DE-24;DE-Frei50;DE-26-030;DE-30;DE-31;DE-34-22;DE-35;DE-46;DE-84;DE-107;DE-109;DE-290;DE-355;DE-384;DE-467;DE-468;DE-22;DE-517;DE-703;DE-Hil2;DE-Lg1;DE-1156;DE-60</t>
   </si>
   <si>
     <t>206605-1</t>
@@ -352,10 +352,10 @@
     <t>1.1918/19 - 8.1926; 9.1952 -</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>DE-1;DE-3-38;DE-5;DE-9;DE-15;DE-16;DE-18;DE-19;DE-20;DE-24;DE-29;DE-30;DE-31;DE-32;DE-34-22;DE-35;DE-38;DE-43;DE-46;DE-66;DE-107;DE-109;DE-291;DE-355;DE-361;DE-384;DE-Lan1;DE-467;DE-468;DE-22;DE-703;DE-715;DE-Kn28;DE-1156;DE-Kob7</t>
+    <t>39</t>
+  </si>
+  <si>
+    <t>DE-1;DE-3-38;DE-5;DE-9;DE-15;DE-16;DE-18;DE-19;DE-20;DE-23;DE-24;DE-26-009;DE-29;DE-30;DE-31;DE-32;DE-34-22;DE-35;DE-38;DE-43;DE-46;DE-66;DE-107;DE-109;DE-291;DE-355;DE-361;DE-384;DE-Lan1;DE-467;DE-468;DE-22;DE-700;DE-703;DE-715;DE-Hil2;DE-Kn28;DE-1156;DE-Kob7</t>
   </si>
   <si>
     <t>233197-4</t>
@@ -871,333 +871,336 @@
     <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2112018;https://muse.jhu.edu/journal/228;https://www.jstor.org/journal/philmusieducrevi</t>
   </si>
   <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>DE-3;DE-4;DE-7;DE-8;DE-9;DE-14;DE-15;DE-15-292;DE-16;DE-Ds114;DE-18;DE-210;DE-19;DE-M352;DE-21;DE-24;DE-Frei129;DE-25;DE-Frei160;DE-26;DE-27;DE-28;DE-29;DE-31;DE-43;DE-83;DE-84;DE-89;DE-90;DE-91;DE-93;DE-100;DE-105;DE-180;DE-289;DE-Sa18;DE-291;DE-352;DE-355;DE-384;DE-473;DE-70;DE-517;DE-547;DE-703;DE-705;DE-824;DE-Hil2;DE-Ma9;DE-Luen4;DE-Ch1;DE-Wim2;DE-834;DE-752;DE-Lg1;DE-520;DE-523;DE-751;DE-Zi4</t>
+  </si>
+  <si>
+    <t>2112989-7</t>
+  </si>
+  <si>
+    <t>Bach-Magazin</t>
+  </si>
+  <si>
+    <t>Verlag Klaus-Jürgen Kamprad;Bach-Archiv;Leipziger Medien Service</t>
+  </si>
+  <si>
+    <t>Altenburg;Leipzig</t>
+  </si>
+  <si>
+    <t>1611-5724</t>
+  </si>
+  <si>
+    <t>Nr. 1.2003 -</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>DE-1;DE-3-38;DE-14;DE-15;DE-27;DE-30;DE-32;DE-929</t>
+  </si>
+  <si>
+    <t>2195322-3</t>
+  </si>
+  <si>
+    <t>Neue Chorzeit</t>
+  </si>
+  <si>
+    <t>Dt. Chorverb., Verl.- u. Projektges.</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>1862-734X</t>
+  </si>
+  <si>
+    <t>9,2;3,61;FID-MUS-DE-12</t>
+  </si>
+  <si>
+    <t>2749725-2</t>
+  </si>
+  <si>
+    <t>748409-4;529281-5</t>
+  </si>
+  <si>
+    <t>2005,Juli - 2013,Dez.</t>
+  </si>
+  <si>
+    <t>2113743-2</t>
+  </si>
+  <si>
+    <t>Kalophōnia</t>
+  </si>
+  <si>
+    <t>LBA</t>
+  </si>
+  <si>
+    <t>L'viv</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>1.2002 -</t>
+  </si>
+  <si>
+    <t>DE-20</t>
+  </si>
+  <si>
+    <t>2123153-9</t>
+  </si>
+  <si>
+    <t>British journal of ethnomusicology</t>
+  </si>
+  <si>
+    <t>BFE</t>
+  </si>
+  <si>
+    <t>Milton Keynes</t>
+  </si>
+  <si>
+    <t>390;780</t>
+  </si>
+  <si>
+    <t>2149931-7</t>
+  </si>
+  <si>
+    <t>1.1992 - 12.2003</t>
+  </si>
+  <si>
+    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2123153;https://www.jstor.org/journal/britjethn;https://www.tandfonline.com/loi/remf20</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>DE-18;DE-517</t>
+  </si>
+  <si>
+    <t>2123435-8</t>
+  </si>
+  <si>
+    <t>The Galpin Society journal</t>
+  </si>
+  <si>
+    <t>1.1948 -</t>
+  </si>
+  <si>
+    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2123435;https://www.jstor.org/journal/galpinsocietyj</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>DE-3;DE-4;DE-7;DE-8;DE-9;DE-14;DE-15;DE-15-292;DE-16;DE-Ds114;DE-18;DE-210;DE-M352;DE-19;DE-20;DE-21;DE-24;DE-Frei160;DE-25;DE-26;DE-27;DE-28;DE-29;DE-31;DE-43;DE-83;DE-84;DE-89;DE-90;DE-91;DE-93;DE-100;DE-105;DE-180;DE-289;DE-Sa18;DE-291;DE-352;DE-355;DE-384;DE-473;DE-70;DE-517;DE-547;DE-703;DE-705;DE-739;DE-824;DE-Hil2;DE-Ma9;DE-Luen4;DE-Ch1;DE-Wim2;DE-Ki95;DE-634;DE-520;DE-706;DE-523;DE-751;DE-Zi4</t>
+  </si>
+  <si>
+    <t>2124376-1</t>
+  </si>
+  <si>
+    <t>Lute news</t>
+  </si>
+  <si>
+    <t>Guildford</t>
+  </si>
+  <si>
+    <t>Konzertsaison</t>
+  </si>
+  <si>
+    <t>2259343-3</t>
+  </si>
+  <si>
+    <t>1998/99 - 2004/05</t>
+  </si>
+  <si>
+    <t>2524053-5</t>
+  </si>
+  <si>
+    <t>Die Münchner Philharmoniker</t>
+  </si>
+  <si>
+    <t>Münchner Philharmoniker</t>
+  </si>
+  <si>
+    <t>[Jahresprogramm]</t>
+  </si>
+  <si>
+    <t>112.2009/10(2009) -</t>
+  </si>
+  <si>
+    <t>2524076-6</t>
+  </si>
+  <si>
+    <t>[Programmhefte]</t>
+  </si>
+  <si>
+    <t>2416364-8</t>
+  </si>
+  <si>
+    <t>112.2009/10 -</t>
+  </si>
+  <si>
+    <t>2532093-2</t>
+  </si>
+  <si>
+    <t>Journal of historical research in music education</t>
+  </si>
+  <si>
+    <t>Sage Publishing;School of Music, Arizona State University;School of Music, Ithaca College</t>
+  </si>
+  <si>
+    <t>Thousand Oaks, CA;Tempe, Ariz.;Ithaca, NY</t>
+  </si>
+  <si>
+    <t>2328-2525</t>
+  </si>
+  <si>
+    <t>2532101-8</t>
+  </si>
+  <si>
+    <t>21.1999 -</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/loi/JHR;https://www.jstor.org/journal/jhistresemusiedu;http://www.bibliothek.uni-regensburg.de/ezeit/?2532093</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>DE-3;DE-4;DE-7;DE-8;DE-9;DE-14;DE-15;DE-15-292;DE-16;DE-Ds114;DE-18;DE-210;DE-19;DE-M347;DE-M352;DE-20;DE-862;DE-863;DE-21;DE-24;DE-Frei160;DE-Ofb1;DE-Frei129;DE-Fn1;DE-25;DE-26;DE-27;DE-28;DE-1102;DE-29;DE-31;DE-43;DE-83;DE-84;DE-89;DE-90;DE-1028;DE-91;DE-861;DE-93;DE-100;DE-105;DE-180;DE-943;DE-289;DE-Sa18;DE-291;DE-352;DE-1046;DE-898;DE-1050;DE-355;DE-384;DE-Aug4;DE-859;DE-473;DE-70;DE-517;DE-547;DE-703;DE-705;DE-860;DE-739;DE-824;DE-Hil2;DE-Ma9;DE-Luen4;DE-Ch1;DE-Ilm1;DE-Wim2;DE-834;DE-634;DE-Rt2;DE-944;DE-958;DE-Kon4;DE-520;DE-706;DE-F197;DE-1373;DE-960-1;DE-960-3;DE-523;DE-751;DE-1866;DE-Re13;DE-840;DE-Zi4</t>
+  </si>
+  <si>
+    <t>The bulletin of historical research in music education</t>
+  </si>
+  <si>
+    <t>MEMT Division, Univ. of Kansas</t>
+  </si>
+  <si>
+    <t>Lawrence, Kan.</t>
+  </si>
+  <si>
+    <t>1.1980 - 20.1999</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/loi/JHR;https://www.jstor.org/journal/bullhistresemusi;http://www.bibliothek.uni-regensburg.de/ezeit/?2532101</t>
+  </si>
+  <si>
+    <t>DE-517</t>
+  </si>
+  <si>
+    <t>2541303-X</t>
+  </si>
+  <si>
+    <t>Cahiers de musiques traditionnelles</t>
+  </si>
+  <si>
+    <t>Ateliers</t>
+  </si>
+  <si>
+    <t>Genève</t>
+  </si>
+  <si>
+    <t>6,31;9,2;FID-MUS-DE-12</t>
+  </si>
+  <si>
+    <t>2593118-0</t>
+  </si>
+  <si>
+    <t>1.1988 - 19.2006</t>
+  </si>
+  <si>
+    <t>https://www.jstor.org/journal/cahdemustrad;http://www.bibliothek.uni-regensburg.de/ezeit/?2541303</t>
+  </si>
+  <si>
+    <t>DE-834</t>
+  </si>
+  <si>
+    <t>2155922-3</t>
+  </si>
+  <si>
+    <t>Yearbook</t>
+  </si>
+  <si>
+    <t>Tulane Univ.</t>
+  </si>
+  <si>
+    <t>New Orleans, La.</t>
+  </si>
+  <si>
+    <t>2159105-2</t>
+  </si>
+  <si>
+    <t>1.1965 - 5.1969</t>
+  </si>
+  <si>
+    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2155922;https://www.jstor.org/journal/anuario</t>
+  </si>
+  <si>
+    <t>Anuário interamericano de investigación musical</t>
+  </si>
+  <si>
+    <t>Univ. of Texas</t>
+  </si>
+  <si>
+    <t>Austin, Tex.</t>
+  </si>
+  <si>
+    <t>eng;spa;por</t>
+  </si>
+  <si>
+    <t>2057750-3</t>
+  </si>
+  <si>
+    <t>6.1970 - 11.1975</t>
+  </si>
+  <si>
+    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2159105;https://www.jstor.org/journal/anuainteinvemusi</t>
+  </si>
+  <si>
+    <t>2236709-3</t>
+  </si>
+  <si>
+    <t>Glissando</t>
+  </si>
+  <si>
+    <t>Fundacja 4.99</t>
+  </si>
+  <si>
+    <t>pol;ger</t>
+  </si>
+  <si>
+    <t>1733-4098</t>
+  </si>
+  <si>
+    <t>Nr. 1.2004 -</t>
+  </si>
+  <si>
+    <t>DE-Mb50</t>
+  </si>
+  <si>
+    <t>2549344-9</t>
+  </si>
+  <si>
+    <t>Sage;[Verlag nicht ermittelbar]</t>
+  </si>
+  <si>
+    <t>Thousand Oaks, Calif.;Fairfax, Va.</t>
+  </si>
+  <si>
+    <t>2515-4842</t>
+  </si>
+  <si>
+    <t>Volume 1, issue 1 (January 1951)-</t>
+  </si>
+  <si>
+    <t>https://search.proquest.com/publication/publications_15004;https://journals.sagepub.com/loi/STA;http://www.bibliothek.uni-regensburg.de/ezeit/?2549344</t>
+  </si>
+  <si>
     <t>58</t>
   </si>
   <si>
-    <t>DE-3;DE-4;DE-7;DE-8;DE-9;DE-14;DE-15;DE-15-292;DE-16;DE-Ds114;DE-18;DE-210;DE-19;DE-M352;DE-21;DE-24;DE-Frei129;DE-25;DE-Frei160;DE-26;DE-27;DE-28;DE-29;DE-31;DE-43;DE-83;DE-84;DE-89;DE-90;DE-91;DE-93;DE-100;DE-105;DE-180;DE-289;DE-Sa18;DE-291;DE-352;DE-355;DE-384;DE-473;DE-70;DE-517;DE-547;DE-703;DE-705;DE-824;DE-Hil2;DE-Ma9;DE-Luen4;DE-Ch1;DE-Wim2;DE-752;DE-Lg1;DE-520;DE-523;DE-751;DE-Zi4</t>
-  </si>
-  <si>
-    <t>2112989-7</t>
-  </si>
-  <si>
-    <t>Bach-Magazin</t>
-  </si>
-  <si>
-    <t>Verlag Klaus-Jürgen Kamprad;Bach-Archiv;Leipziger Medien Service</t>
-  </si>
-  <si>
-    <t>Altenburg;Leipzig</t>
-  </si>
-  <si>
-    <t>1611-5724</t>
-  </si>
-  <si>
-    <t>Nr. 1.2003 -</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>DE-1;DE-3-38;DE-14;DE-15;DE-27;DE-30;DE-32;DE-929</t>
-  </si>
-  <si>
-    <t>2195322-3</t>
-  </si>
-  <si>
-    <t>Neue Chorzeit</t>
-  </si>
-  <si>
-    <t>Dt. Chorverb., Verl.- u. Projektges.</t>
-  </si>
-  <si>
-    <t>Berlin</t>
-  </si>
-  <si>
-    <t>1862-734X</t>
-  </si>
-  <si>
-    <t>9,2;3,61;FID-MUS-DE-12</t>
-  </si>
-  <si>
-    <t>2749725-2</t>
-  </si>
-  <si>
-    <t>748409-4;529281-5</t>
-  </si>
-  <si>
-    <t>2005,Juli - 2013,Dez.</t>
-  </si>
-  <si>
-    <t>2113743-2</t>
-  </si>
-  <si>
-    <t>Kalophōnia</t>
-  </si>
-  <si>
-    <t>LBA</t>
-  </si>
-  <si>
-    <t>L'viv</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>1.2002 -</t>
-  </si>
-  <si>
-    <t>DE-20</t>
-  </si>
-  <si>
-    <t>2123153-9</t>
-  </si>
-  <si>
-    <t>British journal of ethnomusicology</t>
-  </si>
-  <si>
-    <t>BFE</t>
-  </si>
-  <si>
-    <t>Milton Keynes</t>
-  </si>
-  <si>
-    <t>390;780</t>
-  </si>
-  <si>
-    <t>2149931-7</t>
-  </si>
-  <si>
-    <t>1.1992 - 12.2003</t>
-  </si>
-  <si>
-    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2123153;https://www.jstor.org/journal/britjethn;https://www.tandfonline.com/loi/remf20</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>DE-18;DE-517</t>
-  </si>
-  <si>
-    <t>2123435-8</t>
-  </si>
-  <si>
-    <t>The Galpin Society journal</t>
-  </si>
-  <si>
-    <t>1.1948 -</t>
-  </si>
-  <si>
-    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2123435;https://www.jstor.org/journal/galpinsocietyj</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>DE-3;DE-4;DE-7;DE-8;DE-9;DE-14;DE-15;DE-15-292;DE-16;DE-Ds114;DE-18;DE-210;DE-M352;DE-19;DE-20;DE-21;DE-24;DE-Frei160;DE-25;DE-26;DE-27;DE-28;DE-29;DE-31;DE-43;DE-83;DE-84;DE-89;DE-90;DE-91;DE-93;DE-100;DE-105;DE-180;DE-289;DE-Sa18;DE-291;DE-352;DE-355;DE-384;DE-473;DE-70;DE-517;DE-547;DE-703;DE-705;DE-739;DE-824;DE-Hil2;DE-Ma9;DE-Luen4;DE-Ch1;DE-Wim2;DE-Ki95;DE-634;DE-520;DE-706;DE-523;DE-751;DE-Zi4</t>
-  </si>
-  <si>
-    <t>2124376-1</t>
-  </si>
-  <si>
-    <t>Lute news</t>
-  </si>
-  <si>
-    <t>Guildford</t>
-  </si>
-  <si>
-    <t>Konzertsaison</t>
-  </si>
-  <si>
-    <t>2259343-3</t>
-  </si>
-  <si>
-    <t>1998/99 - 2004/05</t>
-  </si>
-  <si>
-    <t>2524053-5</t>
-  </si>
-  <si>
-    <t>Die Münchner Philharmoniker</t>
-  </si>
-  <si>
-    <t>Münchner Philharmoniker</t>
-  </si>
-  <si>
-    <t>[Jahresprogramm]</t>
-  </si>
-  <si>
-    <t>112.2009/10(2009) -</t>
-  </si>
-  <si>
-    <t>2524076-6</t>
-  </si>
-  <si>
-    <t>[Programmhefte]</t>
-  </si>
-  <si>
-    <t>2416364-8</t>
-  </si>
-  <si>
-    <t>112.2009/10 -</t>
-  </si>
-  <si>
-    <t>2532093-2</t>
-  </si>
-  <si>
-    <t>Journal of historical research in music education</t>
-  </si>
-  <si>
-    <t>Sage Publishing;School of Music, Arizona State University;School of Music, Ithaca College</t>
-  </si>
-  <si>
-    <t>Thousand Oaks, CA;Tempe, Ariz.;Ithaca, NY</t>
-  </si>
-  <si>
-    <t>2328-2525</t>
-  </si>
-  <si>
-    <t>2532101-8</t>
-  </si>
-  <si>
-    <t>21.1999 -</t>
-  </si>
-  <si>
-    <t>https://journals.sagepub.com/loi/JHR;https://www.jstor.org/journal/jhistresemusiedu;http://www.bibliothek.uni-regensburg.de/ezeit/?2532093</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>DE-3;DE-4;DE-7;DE-8;DE-9;DE-14;DE-15;DE-15-292;DE-16;DE-Ds114;DE-18;DE-210;DE-19;DE-M347;DE-M352;DE-20;DE-862;DE-863;DE-21;DE-24;DE-Frei160;DE-Ofb1;DE-Frei129;DE-Fn1;DE-25;DE-26;DE-27;DE-28;DE-1102;DE-29;DE-31;DE-43;DE-83;DE-84;DE-89;DE-90;DE-1028;DE-91;DE-861;DE-93;DE-100;DE-105;DE-180;DE-943;DE-289;DE-Sa18;DE-291;DE-352;DE-1046;DE-898;DE-1050;DE-355;DE-384;DE-Aug4;DE-859;DE-473;DE-70;DE-517;DE-547;DE-703;DE-705;DE-860;DE-739;DE-824;DE-Hil2;DE-Ma9;DE-Luen4;DE-Ch1;DE-Ilm1;DE-Wim2;DE-834;DE-634;DE-Rt2;DE-944;DE-958;DE-Kon4;DE-520;DE-706;DE-F197;DE-1373;DE-960-1;DE-960-3;DE-523;DE-751;DE-1866;DE-Re13;DE-840;DE-Zi4</t>
-  </si>
-  <si>
-    <t>The bulletin of historical research in music education</t>
-  </si>
-  <si>
-    <t>MEMT Division, Univ. of Kansas</t>
-  </si>
-  <si>
-    <t>Lawrence, Kan.</t>
-  </si>
-  <si>
-    <t>1.1980 - 20.1999</t>
-  </si>
-  <si>
-    <t>https://journals.sagepub.com/loi/JHR;https://www.jstor.org/journal/bullhistresemusi;http://www.bibliothek.uni-regensburg.de/ezeit/?2532101</t>
-  </si>
-  <si>
-    <t>DE-517</t>
-  </si>
-  <si>
-    <t>2541303-X</t>
-  </si>
-  <si>
-    <t>Cahiers de musiques traditionnelles</t>
-  </si>
-  <si>
-    <t>Ateliers</t>
-  </si>
-  <si>
-    <t>Genève</t>
-  </si>
-  <si>
-    <t>6,31;9,2;FID-MUS-DE-12</t>
-  </si>
-  <si>
-    <t>2593118-0</t>
-  </si>
-  <si>
-    <t>1.1988 - 19.2006</t>
-  </si>
-  <si>
-    <t>https://www.jstor.org/journal/cahdemustrad;http://www.bibliothek.uni-regensburg.de/ezeit/?2541303</t>
-  </si>
-  <si>
-    <t>DE-834</t>
-  </si>
-  <si>
-    <t>2155922-3</t>
-  </si>
-  <si>
-    <t>Yearbook</t>
-  </si>
-  <si>
-    <t>Tulane Univ.</t>
-  </si>
-  <si>
-    <t>New Orleans, La.</t>
-  </si>
-  <si>
-    <t>2159105-2</t>
-  </si>
-  <si>
-    <t>1.1965 - 5.1969</t>
-  </si>
-  <si>
-    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2155922;https://www.jstor.org/journal/anuario</t>
-  </si>
-  <si>
-    <t>Anuário interamericano de investigación musical</t>
-  </si>
-  <si>
-    <t>Univ. of Texas</t>
-  </si>
-  <si>
-    <t>Austin, Tex.</t>
-  </si>
-  <si>
-    <t>eng;spa;por</t>
-  </si>
-  <si>
-    <t>2057750-3</t>
-  </si>
-  <si>
-    <t>6.1970 - 11.1975</t>
-  </si>
-  <si>
-    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2159105;https://www.jstor.org/journal/anuainteinvemusi</t>
-  </si>
-  <si>
-    <t>2236709-3</t>
-  </si>
-  <si>
-    <t>Glissando</t>
-  </si>
-  <si>
-    <t>Fundacja 4.99</t>
-  </si>
-  <si>
-    <t>pol;ger</t>
-  </si>
-  <si>
-    <t>1733-4098</t>
-  </si>
-  <si>
-    <t>Nr. 1.2004 -</t>
-  </si>
-  <si>
-    <t>DE-Mb50</t>
-  </si>
-  <si>
-    <t>2549344-9</t>
-  </si>
-  <si>
-    <t>Sage;[Verlag nicht ermittelbar]</t>
-  </si>
-  <si>
-    <t>Thousand Oaks, Calif.;Fairfax, Va.</t>
-  </si>
-  <si>
-    <t>2515-4842</t>
-  </si>
-  <si>
-    <t>Volume 1, issue 1 (January 1951)-</t>
-  </si>
-  <si>
-    <t>https://search.proquest.com/publication/publications_15004;https://journals.sagepub.com/loi/STA;http://www.bibliothek.uni-regensburg.de/ezeit/?2549344</t>
-  </si>
-  <si>
     <t>DE-7;DE-9;DE-14;DE-15;DE-15-292;DE-16;DE-Ds114;DE-18;DE-19;DE-M347;DE-862;DE-863;DE-21;DE-24;DE-Frei160;DE-Ofb1;DE-Frei129;DE-Fn1;DE-27;DE-1102;DE-84;DE-89;DE-1028;DE-91;DE-861;DE-100;DE-180;DE-943;DE-289;DE-Sa18;DE-1046;DE-898;DE-1050;DE-355;DE-384;DE-Aug4;DE-859;DE-473;DE-703;DE-705;DE-860;DE-739;DE-824;DE-Ma9;DE-Ilm1;DE-634;DE-Rt2;DE-944;DE-958;DE-Kon4;DE-706;DE-F197;DE-1373;DE-960-1;DE-960-3;DE-1866;DE-Re13;DE-840</t>
   </si>
   <si>
@@ -1243,9 +1246,6 @@
     <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2560676;https://www.jstor.org/journal/choralj</t>
   </si>
   <si>
-    <t>59</t>
-  </si>
-  <si>
     <t>DE-3;DE-4;DE-7;DE-8;DE-9;DE-14;DE-15;DE-15-292;DE-16;DE-Ds114;DE-18;DE-M347;DE-210;DE-19;DE-M352;DE-20;DE-21;DE-24;DE-Frei160;DE-25;DE-26;DE-27;DE-28;DE-29;DE-31;DE-43;DE-83;DE-84;DE-89;DE-90;DE-91;DE-93;DE-100;DE-105;DE-180;DE-289;DE-Sa18;DE-291;DE-352;DE-355;DE-384;DE-473;DE-70;DE-517;DE-547;DE-703;DE-705;DE-824;DE-Hil2;DE-Ma9;DE-Luen4;DE-Ch1;DE-Wim2;DE-944;DE-520;DE-523;DE-751;DE-840;DE-Zi4</t>
   </si>
   <si>
@@ -1843,7 +1843,10 @@
     <t>1.2013 -</t>
   </si>
   <si>
-    <t>DE-20;DE-929</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>DE-1;DE-20;DE-929</t>
   </si>
   <si>
     <t>2877964-2</t>
@@ -2770,7 +2773,7 @@
     <t>1. Jahrgang (2017)-</t>
   </si>
   <si>
-    <t>DE-35</t>
+    <t>DE-7;DE-23;DE-35;DE-56</t>
   </si>
   <si>
     <t>2907031-4</t>
@@ -3511,9 +3514,6 @@
     <t>No 1 (Herbst 2018)-</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>DE-1;DE-27;DE-32</t>
   </si>
   <si>
@@ -3883,7 +3883,10 @@
     <t>519406-4</t>
   </si>
   <si>
-    <t>DE-7;DE-18;DE-31;DE-352;DE-468</t>
+    <t>6</t>
+  </si>
+  <si>
+    <t>DE-7;DE-18;DE-23;DE-31;DE-352;DE-468</t>
   </si>
   <si>
     <t>2981519-8</t>
@@ -8582,15 +8585,15 @@
         <v>31</v>
       </c>
       <c r="X49" t="s">
-        <v>285</v>
+        <v>394</v>
       </c>
       <c r="Y49" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="50" spans="1:25">
       <c r="A50" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B50" t="s">
         <v>142</v>
@@ -8599,13 +8602,13 @@
         <v>161</v>
       </c>
       <c r="D50" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E50" t="s">
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G50" t="s">
         <v>40</v>
@@ -8614,7 +8617,7 @@
         <v>31</v>
       </c>
       <c r="I50" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J50" t="s">
         <v>42</v>
@@ -8641,10 +8644,10 @@
         <v>31</v>
       </c>
       <c r="R50" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="S50" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="T50" t="s">
         <v>149</v>
@@ -8659,15 +8662,15 @@
         <v>31</v>
       </c>
       <c r="X50" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Y50" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="51" spans="1:25">
       <c r="A51" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B51" t="s">
         <v>142</v>
@@ -8676,13 +8679,13 @@
         <v>161</v>
       </c>
       <c r="D51" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E51" t="s">
         <v>38</v>
       </c>
       <c r="F51" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G51" t="s">
         <v>40</v>
@@ -8691,7 +8694,7 @@
         <v>31</v>
       </c>
       <c r="I51" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J51" t="s">
         <v>42</v>
@@ -8718,10 +8721,10 @@
         <v>31</v>
       </c>
       <c r="R51" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S51" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="T51" t="s">
         <v>31</v>
@@ -8736,7 +8739,7 @@
         <v>31</v>
       </c>
       <c r="X51" t="s">
-        <v>409</v>
+        <v>285</v>
       </c>
       <c r="Y51" t="s">
         <v>410</v>
@@ -11431,15 +11434,15 @@
         <v>31</v>
       </c>
       <c r="X86" t="s">
-        <v>319</v>
+        <v>609</v>
       </c>
       <c r="Y86" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="87" spans="1:25">
       <c r="A87" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B87" t="s">
         <v>26</v>
@@ -11448,13 +11451,13 @@
         <v>27</v>
       </c>
       <c r="D87" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E87" t="s">
         <v>38</v>
       </c>
       <c r="F87" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G87" t="s">
         <v>67</v>
@@ -11463,7 +11466,7 @@
         <v>31</v>
       </c>
       <c r="I87" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="J87" t="s">
         <v>42</v>
@@ -11490,7 +11493,7 @@
         <v>31</v>
       </c>
       <c r="R87" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="S87" t="s">
         <v>31</v>
@@ -11516,7 +11519,7 @@
     </row>
     <row r="88" spans="1:25">
       <c r="A88" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B88" t="s">
         <v>26</v>
@@ -11525,13 +11528,13 @@
         <v>27</v>
       </c>
       <c r="D88" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E88" t="s">
         <v>38</v>
       </c>
       <c r="F88" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G88" t="s">
         <v>67</v>
@@ -11540,7 +11543,7 @@
         <v>31</v>
       </c>
       <c r="I88" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="J88" t="s">
         <v>42</v>
@@ -11567,7 +11570,7 @@
         <v>31</v>
       </c>
       <c r="R88" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="S88" t="s">
         <v>31</v>
@@ -11593,7 +11596,7 @@
     </row>
     <row r="89" spans="1:25">
       <c r="A89" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B89" t="s">
         <v>142</v>
@@ -11602,13 +11605,13 @@
         <v>27</v>
       </c>
       <c r="D89" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E89" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F89" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G89" t="s">
         <v>489</v>
@@ -11617,7 +11620,7 @@
         <v>31</v>
       </c>
       <c r="I89" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="J89" t="s">
         <v>42</v>
@@ -11644,10 +11647,10 @@
         <v>31</v>
       </c>
       <c r="R89" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="S89" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="T89" t="s">
         <v>149</v>
@@ -11670,7 +11673,7 @@
     </row>
     <row r="90" spans="1:25">
       <c r="A90" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B90" t="s">
         <v>26</v>
@@ -11679,10 +11682,10 @@
         <v>27</v>
       </c>
       <c r="D90" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E90" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F90" t="s">
         <v>72</v>
@@ -11694,7 +11697,7 @@
         <v>31</v>
       </c>
       <c r="I90" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="J90" t="s">
         <v>42</v>
@@ -11721,7 +11724,7 @@
         <v>31</v>
       </c>
       <c r="R90" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="S90" t="s">
         <v>31</v>
@@ -11747,7 +11750,7 @@
     </row>
     <row r="91" spans="1:25">
       <c r="A91" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B91" t="s">
         <v>26</v>
@@ -11756,10 +11759,10 @@
         <v>27</v>
       </c>
       <c r="D91" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E91" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F91" t="s">
         <v>72</v>
@@ -11771,7 +11774,7 @@
         <v>31</v>
       </c>
       <c r="I91" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="J91" t="s">
         <v>42</v>
@@ -11798,7 +11801,7 @@
         <v>31</v>
       </c>
       <c r="R91" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="S91" t="s">
         <v>31</v>
@@ -11824,7 +11827,7 @@
     </row>
     <row r="92" spans="1:25">
       <c r="A92" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B92" t="s">
         <v>26</v>
@@ -11833,22 +11836,22 @@
         <v>27</v>
       </c>
       <c r="D92" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="E92" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F92" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G92" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H92" t="s">
         <v>31</v>
       </c>
       <c r="I92" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="J92" t="s">
         <v>31</v>
@@ -11901,7 +11904,7 @@
     </row>
     <row r="93" spans="1:25">
       <c r="A93" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B93" t="s">
         <v>26</v>
@@ -11910,13 +11913,13 @@
         <v>27</v>
       </c>
       <c r="D93" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E93" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F93" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="G93" t="s">
         <v>84</v>
@@ -11952,7 +11955,7 @@
         <v>31</v>
       </c>
       <c r="R93" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="S93" t="s">
         <v>31</v>
@@ -11978,7 +11981,7 @@
     </row>
     <row r="94" spans="1:25">
       <c r="A94" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B94" t="s">
         <v>142</v>
@@ -11987,10 +11990,10 @@
         <v>27</v>
       </c>
       <c r="D94" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E94" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F94" t="s">
         <v>72</v>
@@ -12029,10 +12032,10 @@
         <v>31</v>
       </c>
       <c r="R94" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="S94" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="T94" t="s">
         <v>149</v>
@@ -12055,7 +12058,7 @@
     </row>
     <row r="95" spans="1:25">
       <c r="A95" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B95" t="s">
         <v>142</v>
@@ -12064,16 +12067,16 @@
         <v>27</v>
       </c>
       <c r="D95" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E95" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F95" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="G95" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H95" t="s">
         <v>31</v>
@@ -12106,10 +12109,10 @@
         <v>31</v>
       </c>
       <c r="R95" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="S95" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="T95" t="s">
         <v>149</v>
@@ -12132,7 +12135,7 @@
     </row>
     <row r="96" spans="1:25">
       <c r="A96" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B96" t="s">
         <v>142</v>
@@ -12141,13 +12144,13 @@
         <v>27</v>
       </c>
       <c r="D96" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E96" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F96" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="G96" t="s">
         <v>40</v>
@@ -12159,7 +12162,7 @@
         <v>31</v>
       </c>
       <c r="J96" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="K96" t="s">
         <v>51</v>
@@ -12183,10 +12186,10 @@
         <v>31</v>
       </c>
       <c r="R96" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="S96" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="T96" t="s">
         <v>149</v>
@@ -12209,7 +12212,7 @@
     </row>
     <row r="97" spans="1:25">
       <c r="A97" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B97" t="s">
         <v>142</v>
@@ -12218,22 +12221,22 @@
         <v>27</v>
       </c>
       <c r="D97" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E97" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F97" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="G97" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H97" t="s">
         <v>31</v>
       </c>
       <c r="I97" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="J97" t="s">
         <v>42</v>
@@ -12257,13 +12260,13 @@
         <v>31</v>
       </c>
       <c r="Q97" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="R97" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S97" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="T97" t="s">
         <v>149</v>
@@ -12286,7 +12289,7 @@
     </row>
     <row r="98" spans="1:25">
       <c r="A98" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B98" t="s">
         <v>142</v>
@@ -12295,22 +12298,22 @@
         <v>27</v>
       </c>
       <c r="D98" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="E98" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F98" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="G98" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H98" t="s">
         <v>31</v>
       </c>
       <c r="I98" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="J98" t="s">
         <v>42</v>
@@ -12331,16 +12334,16 @@
         <v>31</v>
       </c>
       <c r="P98" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="Q98" t="s">
         <v>31</v>
       </c>
       <c r="R98" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="S98" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="T98" t="s">
         <v>149</v>
@@ -12363,7 +12366,7 @@
     </row>
     <row r="99" spans="1:25">
       <c r="A99" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B99" t="s">
         <v>142</v>
@@ -12372,13 +12375,13 @@
         <v>27</v>
       </c>
       <c r="D99" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E99" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F99" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="G99" t="s">
         <v>40</v>
@@ -12387,7 +12390,7 @@
         <v>31</v>
       </c>
       <c r="I99" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="J99" t="s">
         <v>42</v>
@@ -12414,10 +12417,10 @@
         <v>31</v>
       </c>
       <c r="R99" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="S99" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="T99" t="s">
         <v>149</v>
@@ -12440,7 +12443,7 @@
     </row>
     <row r="100" spans="1:25">
       <c r="A100" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B100" t="s">
         <v>26</v>
@@ -12449,16 +12452,16 @@
         <v>235</v>
       </c>
       <c r="D100" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E100" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F100" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="G100" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H100" t="s">
         <v>31</v>
@@ -12491,7 +12494,7 @@
         <v>31</v>
       </c>
       <c r="R100" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="S100" t="s">
         <v>31</v>
@@ -12517,7 +12520,7 @@
     </row>
     <row r="101" spans="1:25">
       <c r="A101" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B101" t="s">
         <v>26</v>
@@ -12526,7 +12529,7 @@
         <v>27</v>
       </c>
       <c r="D101" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="E101" t="s">
         <v>38</v>
@@ -12568,7 +12571,7 @@
         <v>31</v>
       </c>
       <c r="R101" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="S101" t="s">
         <v>31</v>
@@ -12594,7 +12597,7 @@
     </row>
     <row r="102" spans="1:25">
       <c r="A102" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B102" t="s">
         <v>26</v>
@@ -12603,13 +12606,13 @@
         <v>27</v>
       </c>
       <c r="D102" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E102" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F102" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="G102" t="s">
         <v>73</v>
@@ -12618,7 +12621,7 @@
         <v>31</v>
       </c>
       <c r="I102" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="J102" t="s">
         <v>42</v>
@@ -12645,7 +12648,7 @@
         <v>31</v>
       </c>
       <c r="R102" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="S102" t="s">
         <v>31</v>
@@ -12671,19 +12674,19 @@
     </row>
     <row r="103" spans="1:25">
       <c r="A103" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B103" t="s">
         <v>26</v>
       </c>
       <c r="C103" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D103" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="E103" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="F103" t="s">
         <v>30</v>
@@ -12722,7 +12725,7 @@
         <v>31</v>
       </c>
       <c r="R103" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="S103" t="s">
         <v>31</v>
@@ -12748,7 +12751,7 @@
     </row>
     <row r="104" spans="1:25">
       <c r="A104" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B104" t="s">
         <v>26</v>
@@ -12757,13 +12760,13 @@
         <v>235</v>
       </c>
       <c r="D104" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="E104" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F104" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G104" t="s">
         <v>84</v>
@@ -12799,7 +12802,7 @@
         <v>31</v>
       </c>
       <c r="R104" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="S104" t="s">
         <v>31</v>
@@ -12820,12 +12823,12 @@
         <v>319</v>
       </c>
       <c r="Y104" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="105" spans="1:25">
       <c r="A105" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B105" t="s">
         <v>26</v>
@@ -12834,16 +12837,16 @@
         <v>27</v>
       </c>
       <c r="D105" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E105" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F105" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G105" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H105" t="s">
         <v>31</v>
@@ -12876,7 +12879,7 @@
         <v>31</v>
       </c>
       <c r="R105" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="S105" t="s">
         <v>31</v>
@@ -12902,7 +12905,7 @@
     </row>
     <row r="106" spans="1:25">
       <c r="A106" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B106" t="s">
         <v>26</v>
@@ -12911,10 +12914,10 @@
         <v>27</v>
       </c>
       <c r="D106" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="E106" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="F106" t="s">
         <v>72</v>
@@ -12926,7 +12929,7 @@
         <v>31</v>
       </c>
       <c r="I106" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="J106" t="s">
         <v>42</v>
@@ -12953,7 +12956,7 @@
         <v>31</v>
       </c>
       <c r="R106" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="S106" t="s">
         <v>31</v>
@@ -12979,7 +12982,7 @@
     </row>
     <row r="107" spans="1:25">
       <c r="A107" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B107" t="s">
         <v>26</v>
@@ -12988,10 +12991,10 @@
         <v>27</v>
       </c>
       <c r="D107" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="E107" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="F107" t="s">
         <v>123</v>
@@ -13003,7 +13006,7 @@
         <v>31</v>
       </c>
       <c r="I107" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="J107" t="s">
         <v>31</v>
@@ -13051,12 +13054,12 @@
         <v>61</v>
       </c>
       <c r="Y107" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="108" spans="1:25">
       <c r="A108" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B108" t="s">
         <v>26</v>
@@ -13065,13 +13068,13 @@
         <v>27</v>
       </c>
       <c r="D108" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="E108" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="F108" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G108" t="s">
         <v>489</v>
@@ -13107,7 +13110,7 @@
         <v>31</v>
       </c>
       <c r="R108" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="S108" t="s">
         <v>31</v>
@@ -13133,7 +13136,7 @@
     </row>
     <row r="109" spans="1:25">
       <c r="A109" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B109" t="s">
         <v>142</v>
@@ -13142,16 +13145,16 @@
         <v>27</v>
       </c>
       <c r="D109" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="E109" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F109" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G109" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H109" t="s">
         <v>31</v>
@@ -13184,10 +13187,10 @@
         <v>31</v>
       </c>
       <c r="R109" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="S109" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="T109" t="s">
         <v>208</v>
@@ -13202,15 +13205,15 @@
         <v>31</v>
       </c>
       <c r="X109" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="Y109" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="110" spans="1:25">
       <c r="A110" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B110" t="s">
         <v>26</v>
@@ -13219,7 +13222,7 @@
         <v>235</v>
       </c>
       <c r="D110" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="E110" t="s">
         <v>223</v>
@@ -13258,10 +13261,10 @@
         <v>31</v>
       </c>
       <c r="Q110" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="R110" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="S110" t="s">
         <v>31</v>
@@ -13287,7 +13290,7 @@
     </row>
     <row r="111" spans="1:25">
       <c r="A111" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B111" t="s">
         <v>26</v>
@@ -13299,10 +13302,10 @@
         <v>494</v>
       </c>
       <c r="E111" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="F111" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G111" t="s">
         <v>131</v>
@@ -13311,7 +13314,7 @@
         <v>31</v>
       </c>
       <c r="I111" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="J111" t="s">
         <v>42</v>
@@ -13338,7 +13341,7 @@
         <v>31</v>
       </c>
       <c r="R111" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="S111" t="s">
         <v>31</v>
@@ -13364,7 +13367,7 @@
     </row>
     <row r="112" spans="1:25">
       <c r="A112" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B112" t="s">
         <v>26</v>
@@ -13373,22 +13376,22 @@
         <v>27</v>
       </c>
       <c r="D112" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="E112" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="F112" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G112" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H112" t="s">
         <v>31</v>
       </c>
       <c r="I112" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="J112" t="s">
         <v>42</v>
@@ -13409,13 +13412,13 @@
         <v>31</v>
       </c>
       <c r="P112" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="Q112" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="R112" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="S112" t="s">
         <v>31</v>
@@ -13441,7 +13444,7 @@
     </row>
     <row r="113" spans="1:25">
       <c r="A113" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B113" t="s">
         <v>26</v>
@@ -13450,22 +13453,22 @@
         <v>27</v>
       </c>
       <c r="D113" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E113" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="F113" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G113" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H113" t="s">
         <v>31</v>
       </c>
       <c r="I113" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="J113" t="s">
         <v>42</v>
@@ -13489,10 +13492,10 @@
         <v>31</v>
       </c>
       <c r="Q113" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="R113" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="S113" t="s">
         <v>31</v>
@@ -13518,7 +13521,7 @@
     </row>
     <row r="114" spans="1:25">
       <c r="A114" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B114" t="s">
         <v>142</v>
@@ -13527,7 +13530,7 @@
         <v>27</v>
       </c>
       <c r="D114" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E114" t="s">
         <v>38</v>
@@ -13569,10 +13572,10 @@
         <v>31</v>
       </c>
       <c r="R114" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="S114" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="T114" t="s">
         <v>149</v>
@@ -13595,7 +13598,7 @@
     </row>
     <row r="115" spans="1:25">
       <c r="A115" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B115" t="s">
         <v>26</v>
@@ -13604,13 +13607,13 @@
         <v>27</v>
       </c>
       <c r="D115" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E115" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F115" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G115" t="s">
         <v>124</v>
@@ -13619,7 +13622,7 @@
         <v>31</v>
       </c>
       <c r="I115" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="J115" t="s">
         <v>42</v>
@@ -13646,7 +13649,7 @@
         <v>31</v>
       </c>
       <c r="R115" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="S115" t="s">
         <v>31</v>
@@ -13672,7 +13675,7 @@
     </row>
     <row r="116" spans="1:25">
       <c r="A116" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B116" t="s">
         <v>142</v>
@@ -13681,10 +13684,10 @@
         <v>27</v>
       </c>
       <c r="D116" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="E116" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F116" t="s">
         <v>329</v>
@@ -13720,13 +13723,13 @@
         <v>31</v>
       </c>
       <c r="Q116" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="R116" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="S116" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="T116" t="s">
         <v>149</v>
@@ -13749,7 +13752,7 @@
     </row>
     <row r="117" spans="1:25">
       <c r="A117" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B117" t="s">
         <v>142</v>
@@ -13758,10 +13761,10 @@
         <v>27</v>
       </c>
       <c r="D117" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E117" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F117" t="s">
         <v>229</v>
@@ -13794,16 +13797,16 @@
         <v>31</v>
       </c>
       <c r="P117" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="Q117" t="s">
         <v>31</v>
       </c>
       <c r="R117" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="S117" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="T117" t="s">
         <v>149</v>
@@ -13826,7 +13829,7 @@
     </row>
     <row r="118" spans="1:25">
       <c r="A118" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B118" t="s">
         <v>142</v>
@@ -13835,13 +13838,13 @@
         <v>27</v>
       </c>
       <c r="D118" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="E118" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="F118" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="G118" t="s">
         <v>40</v>
@@ -13850,7 +13853,7 @@
         <v>31</v>
       </c>
       <c r="I118" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="J118" t="s">
         <v>42</v>
@@ -13877,10 +13880,10 @@
         <v>31</v>
       </c>
       <c r="R118" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="S118" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="T118" t="s">
         <v>149</v>
@@ -13903,7 +13906,7 @@
     </row>
     <row r="119" spans="1:25">
       <c r="A119" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B119" t="s">
         <v>26</v>
@@ -13912,13 +13915,13 @@
         <v>27</v>
       </c>
       <c r="D119" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E119" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F119" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="G119" t="s">
         <v>40</v>
@@ -13927,13 +13930,13 @@
         <v>31</v>
       </c>
       <c r="I119" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="J119" t="s">
         <v>31</v>
       </c>
       <c r="K119" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="L119" t="s">
         <v>31</v>
@@ -13954,7 +13957,7 @@
         <v>31</v>
       </c>
       <c r="R119" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="S119" t="s">
         <v>31</v>
@@ -13980,7 +13983,7 @@
     </row>
     <row r="120" spans="1:25">
       <c r="A120" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B120" t="s">
         <v>26</v>
@@ -13989,13 +13992,13 @@
         <v>27</v>
       </c>
       <c r="D120" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="E120" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="F120" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="G120" t="s">
         <v>40</v>
@@ -14031,7 +14034,7 @@
         <v>31</v>
       </c>
       <c r="R120" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="S120" t="s">
         <v>31</v>
@@ -14057,22 +14060,22 @@
     </row>
     <row r="121" spans="1:25">
       <c r="A121" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B121" t="s">
         <v>142</v>
       </c>
       <c r="C121" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D121" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="E121" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="F121" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="G121" t="s">
         <v>67</v>
@@ -14081,7 +14084,7 @@
         <v>31</v>
       </c>
       <c r="I121" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="J121" t="s">
         <v>42</v>
@@ -14105,16 +14108,16 @@
         <v>31</v>
       </c>
       <c r="Q121" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="R121" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="S121" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="T121" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="U121" t="s">
         <v>44</v>
@@ -14126,15 +14129,15 @@
         <v>31</v>
       </c>
       <c r="X121" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="Y121" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="122" spans="1:25">
       <c r="A122" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B122" t="s">
         <v>142</v>
@@ -14143,10 +14146,10 @@
         <v>27</v>
       </c>
       <c r="D122" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="E122" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="F122" t="s">
         <v>30</v>
@@ -14167,7 +14170,7 @@
         <v>51</v>
       </c>
       <c r="L122" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="M122" t="s">
         <v>31</v>
@@ -14185,10 +14188,10 @@
         <v>31</v>
       </c>
       <c r="R122" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="S122" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="T122" t="s">
         <v>149</v>
@@ -14211,7 +14214,7 @@
     </row>
     <row r="123" spans="1:25">
       <c r="A123" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B123" t="s">
         <v>26</v>
@@ -14220,13 +14223,13 @@
         <v>88</v>
       </c>
       <c r="D123" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E123" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F123" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="G123" t="s">
         <v>84</v>
@@ -14235,10 +14238,10 @@
         <v>31</v>
       </c>
       <c r="I123" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="J123" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="K123" t="s">
         <v>51</v>
@@ -14262,7 +14265,7 @@
         <v>31</v>
       </c>
       <c r="R123" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="S123" t="s">
         <v>31</v>
@@ -14288,7 +14291,7 @@
     </row>
     <row r="124" spans="1:25">
       <c r="A124" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B124" t="s">
         <v>142</v>
@@ -14297,13 +14300,13 @@
         <v>27</v>
       </c>
       <c r="D124" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="E124" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F124" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="G124" t="s">
         <v>40</v>
@@ -14312,7 +14315,7 @@
         <v>31</v>
       </c>
       <c r="I124" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="J124" t="s">
         <v>42</v>
@@ -14339,10 +14342,10 @@
         <v>31</v>
       </c>
       <c r="R124" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="S124" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="T124" t="s">
         <v>507</v>
@@ -14365,7 +14368,7 @@
     </row>
     <row r="125" spans="1:25">
       <c r="A125" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B125" t="s">
         <v>142</v>
@@ -14374,22 +14377,22 @@
         <v>27</v>
       </c>
       <c r="D125" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="E125" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="F125" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="G125" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H125" t="s">
         <v>31</v>
       </c>
       <c r="I125" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="J125" t="s">
         <v>42</v>
@@ -14416,10 +14419,10 @@
         <v>31</v>
       </c>
       <c r="R125" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="S125" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="T125" t="s">
         <v>507</v>
@@ -14442,7 +14445,7 @@
     </row>
     <row r="126" spans="1:25">
       <c r="A126" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B126" t="s">
         <v>26</v>
@@ -14451,13 +14454,13 @@
         <v>88</v>
       </c>
       <c r="D126" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="E126" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="F126" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G126" t="s">
         <v>84</v>
@@ -14466,10 +14469,10 @@
         <v>31</v>
       </c>
       <c r="I126" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="J126" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="K126" t="s">
         <v>51</v>
@@ -14493,7 +14496,7 @@
         <v>31</v>
       </c>
       <c r="R126" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="S126" t="s">
         <v>31</v>
@@ -14519,7 +14522,7 @@
     </row>
     <row r="127" spans="1:25">
       <c r="A127" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B127" t="s">
         <v>142</v>
@@ -14528,13 +14531,13 @@
         <v>27</v>
       </c>
       <c r="D127" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="E127" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="F127" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="G127" t="s">
         <v>40</v>
@@ -14546,10 +14549,10 @@
         <v>31</v>
       </c>
       <c r="J127" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="K127" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="L127" t="s">
         <v>31</v>
@@ -14570,13 +14573,13 @@
         <v>31</v>
       </c>
       <c r="R127" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="S127" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="T127" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="U127" t="s">
         <v>44</v>
@@ -14588,15 +14591,15 @@
         <v>31</v>
       </c>
       <c r="X127" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="Y127" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="128" spans="1:25">
       <c r="A128" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B128" t="s">
         <v>142</v>
@@ -14605,16 +14608,16 @@
         <v>27</v>
       </c>
       <c r="D128" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E128" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="F128" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="G128" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H128" t="s">
         <v>31</v>
@@ -14629,7 +14632,7 @@
         <v>51</v>
       </c>
       <c r="L128" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="M128" t="s">
         <v>31</v>
@@ -14647,10 +14650,10 @@
         <v>31</v>
       </c>
       <c r="R128" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="S128" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="T128" t="s">
         <v>507</v>
@@ -14673,7 +14676,7 @@
     </row>
     <row r="129" spans="1:25">
       <c r="A129" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B129" t="s">
         <v>142</v>
@@ -14685,7 +14688,7 @@
         <v>48</v>
       </c>
       <c r="E129" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="F129" t="s">
         <v>445</v>
@@ -14718,16 +14721,16 @@
         <v>31</v>
       </c>
       <c r="P129" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="Q129" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="R129" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="S129" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="T129" t="s">
         <v>31</v>
@@ -14750,7 +14753,7 @@
     </row>
     <row r="130" spans="1:25">
       <c r="A130" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B130" t="s">
         <v>142</v>
@@ -14759,13 +14762,13 @@
         <v>27</v>
       </c>
       <c r="D130" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="E130" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="F130" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="G130" t="s">
         <v>40</v>
@@ -14774,7 +14777,7 @@
         <v>31</v>
       </c>
       <c r="I130" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="J130" t="s">
         <v>42</v>
@@ -14801,10 +14804,10 @@
         <v>31</v>
       </c>
       <c r="R130" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="S130" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="T130" t="s">
         <v>149</v>
@@ -14827,7 +14830,7 @@
     </row>
     <row r="131" spans="1:25">
       <c r="A131" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B131" t="s">
         <v>26</v>
@@ -14836,10 +14839,10 @@
         <v>27</v>
       </c>
       <c r="D131" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="E131" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="F131" t="s">
         <v>250</v>
@@ -14878,7 +14881,7 @@
         <v>31</v>
       </c>
       <c r="R131" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="S131" t="s">
         <v>31</v>
@@ -14904,7 +14907,7 @@
     </row>
     <row r="132" spans="1:25">
       <c r="A132" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B132" t="s">
         <v>142</v>
@@ -14913,13 +14916,13 @@
         <v>27</v>
       </c>
       <c r="D132" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="E132" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F132" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="G132" t="s">
         <v>84</v>
@@ -14934,7 +14937,7 @@
         <v>42</v>
       </c>
       <c r="K132" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="L132" t="s">
         <v>31</v>
@@ -14955,7 +14958,7 @@
         <v>31</v>
       </c>
       <c r="R132" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="S132" t="s">
         <v>31</v>
@@ -14981,7 +14984,7 @@
     </row>
     <row r="133" spans="1:25">
       <c r="A133" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B133" t="s">
         <v>142</v>
@@ -14990,10 +14993,10 @@
         <v>161</v>
       </c>
       <c r="D133" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="E133" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="F133" t="s">
         <v>445</v>
@@ -15026,16 +15029,16 @@
         <v>31</v>
       </c>
       <c r="P133" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="Q133" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="R133" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="S133" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="T133" t="s">
         <v>31</v>
@@ -15058,7 +15061,7 @@
     </row>
     <row r="134" spans="1:25">
       <c r="A134" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B134" t="s">
         <v>142</v>
@@ -15067,22 +15070,22 @@
         <v>27</v>
       </c>
       <c r="D134" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E134" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="F134" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G134" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H134" t="s">
         <v>31</v>
       </c>
       <c r="I134" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="J134" t="s">
         <v>42</v>
@@ -15106,13 +15109,13 @@
         <v>31</v>
       </c>
       <c r="Q134" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="R134" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="S134" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="T134" t="s">
         <v>149</v>
@@ -15144,16 +15147,16 @@
         <v>161</v>
       </c>
       <c r="D135" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E135" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="F135" t="s">
         <v>72</v>
       </c>
       <c r="G135" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H135" t="s">
         <v>31</v>
@@ -15162,7 +15165,7 @@
         <v>31</v>
       </c>
       <c r="J135" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="K135" t="s">
         <v>51</v>
@@ -15186,10 +15189,10 @@
         <v>31</v>
       </c>
       <c r="R135" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="S135" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="T135" t="s">
         <v>31</v>
@@ -15212,7 +15215,7 @@
     </row>
     <row r="136" spans="1:25">
       <c r="A136" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B136" t="s">
         <v>26</v>
@@ -15221,13 +15224,13 @@
         <v>27</v>
       </c>
       <c r="D136" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="E136" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="F136" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="G136" t="s">
         <v>84</v>
@@ -15263,7 +15266,7 @@
         <v>31</v>
       </c>
       <c r="R136" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="S136" t="s">
         <v>31</v>
@@ -15289,7 +15292,7 @@
     </row>
     <row r="137" spans="1:25">
       <c r="A137" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B137" t="s">
         <v>142</v>
@@ -15298,7 +15301,7 @@
         <v>27</v>
       </c>
       <c r="D137" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E137" t="s">
         <v>202</v>
@@ -15322,7 +15325,7 @@
         <v>51</v>
       </c>
       <c r="L137" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="M137" t="s">
         <v>31</v>
@@ -15343,7 +15346,7 @@
         <v>31</v>
       </c>
       <c r="S137" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="T137" t="s">
         <v>31</v>
@@ -15366,7 +15369,7 @@
     </row>
     <row r="138" spans="1:25">
       <c r="A138" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B138" t="s">
         <v>26</v>
@@ -15375,13 +15378,13 @@
         <v>235</v>
       </c>
       <c r="D138" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="E138" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="F138" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="G138" t="s">
         <v>84</v>
@@ -15390,7 +15393,7 @@
         <v>31</v>
       </c>
       <c r="I138" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="J138" t="s">
         <v>42</v>
@@ -15417,7 +15420,7 @@
         <v>31</v>
       </c>
       <c r="R138" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="S138" t="s">
         <v>31</v>
@@ -15435,15 +15438,15 @@
         <v>31</v>
       </c>
       <c r="X138" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="Y138" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="139" spans="1:25">
       <c r="A139" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B139" t="s">
         <v>26</v>
@@ -15452,13 +15455,13 @@
         <v>27</v>
       </c>
       <c r="D139" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E139" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="F139" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="G139" t="s">
         <v>40</v>
@@ -15467,7 +15470,7 @@
         <v>31</v>
       </c>
       <c r="I139" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="J139" t="s">
         <v>42</v>
@@ -15494,7 +15497,7 @@
         <v>31</v>
       </c>
       <c r="R139" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="S139" t="s">
         <v>31</v>
@@ -15520,19 +15523,19 @@
     </row>
     <row r="140" spans="1:25">
       <c r="A140" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B140" t="s">
         <v>429</v>
       </c>
       <c r="C140" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="D140" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="E140" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="F140" t="s">
         <v>469</v>
@@ -15553,7 +15556,7 @@
         <v>51</v>
       </c>
       <c r="L140" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="M140" t="s">
         <v>31</v>
@@ -15571,7 +15574,7 @@
         <v>31</v>
       </c>
       <c r="R140" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="S140" t="s">
         <v>31</v>
@@ -15597,7 +15600,7 @@
     </row>
     <row r="141" spans="1:25">
       <c r="A141" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B141" t="s">
         <v>142</v>
@@ -15606,16 +15609,16 @@
         <v>27</v>
       </c>
       <c r="D141" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="E141" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="F141" t="s">
         <v>450</v>
       </c>
       <c r="G141" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="H141" t="s">
         <v>31</v>
@@ -15624,7 +15627,7 @@
         <v>31</v>
       </c>
       <c r="J141" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="K141" t="s">
         <v>51</v>
@@ -15648,10 +15651,10 @@
         <v>31</v>
       </c>
       <c r="R141" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="S141" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="T141" t="s">
         <v>507</v>
@@ -15674,7 +15677,7 @@
     </row>
     <row r="142" spans="1:25">
       <c r="A142" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B142" t="s">
         <v>26</v>
@@ -15683,13 +15686,13 @@
         <v>27</v>
       </c>
       <c r="D142" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E142" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="F142" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="G142" t="s">
         <v>84</v>
@@ -15725,7 +15728,7 @@
         <v>31</v>
       </c>
       <c r="R142" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="S142" t="s">
         <v>31</v>
@@ -15751,7 +15754,7 @@
     </row>
     <row r="143" spans="1:25">
       <c r="A143" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B143" t="s">
         <v>26</v>
@@ -15760,13 +15763,13 @@
         <v>27</v>
       </c>
       <c r="D143" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E143" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="F143" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="G143" t="s">
         <v>84</v>
@@ -15802,7 +15805,7 @@
         <v>31</v>
       </c>
       <c r="R143" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="S143" t="s">
         <v>31</v>
@@ -15828,7 +15831,7 @@
     </row>
     <row r="144" spans="1:25">
       <c r="A144" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B144" t="s">
         <v>142</v>
@@ -15837,13 +15840,13 @@
         <v>27</v>
       </c>
       <c r="D144" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="E144" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="F144" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="G144" t="s">
         <v>84</v>
@@ -15879,10 +15882,10 @@
         <v>31</v>
       </c>
       <c r="R144" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="S144" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="T144" t="s">
         <v>149</v>
@@ -15905,7 +15908,7 @@
     </row>
     <row r="145" spans="1:25">
       <c r="A145" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B145" t="s">
         <v>26</v>
@@ -15914,13 +15917,13 @@
         <v>235</v>
       </c>
       <c r="D145" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E145" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="F145" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="G145" t="s">
         <v>84</v>
@@ -15950,13 +15953,13 @@
         <v>31</v>
       </c>
       <c r="P145" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="Q145" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="R145" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="S145" t="s">
         <v>31</v>
@@ -15977,24 +15980,24 @@
         <v>61</v>
       </c>
       <c r="Y145" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="146" spans="1:25">
       <c r="A146" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B146" t="s">
         <v>429</v>
       </c>
       <c r="C146" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="D146" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E146" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="F146" t="s">
         <v>469</v>
@@ -16033,7 +16036,7 @@
         <v>31</v>
       </c>
       <c r="R146" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="S146" t="s">
         <v>31</v>
@@ -16068,13 +16071,13 @@
         <v>27</v>
       </c>
       <c r="D147" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="E147" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="F147" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="G147" t="s">
         <v>40</v>
@@ -16110,10 +16113,10 @@
         <v>31</v>
       </c>
       <c r="R147" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="S147" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="T147" t="s">
         <v>149</v>
@@ -16136,7 +16139,7 @@
     </row>
     <row r="148" spans="1:25">
       <c r="A148" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B148" t="s">
         <v>142</v>
@@ -16145,10 +16148,10 @@
         <v>27</v>
       </c>
       <c r="D148" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="E148" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="F148" t="s">
         <v>130</v>
@@ -16163,10 +16166,10 @@
         <v>31</v>
       </c>
       <c r="J148" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="K148" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="L148" t="s">
         <v>31</v>
@@ -16187,13 +16190,13 @@
         <v>31</v>
       </c>
       <c r="R148" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="S148" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="T148" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="U148" t="s">
         <v>31</v>
@@ -16213,7 +16216,7 @@
     </row>
     <row r="149" spans="1:25">
       <c r="A149" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B149" t="s">
         <v>142</v>
@@ -16222,13 +16225,13 @@
         <v>27</v>
       </c>
       <c r="D149" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="E149" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="F149" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="G149" t="s">
         <v>73</v>
@@ -16264,10 +16267,10 @@
         <v>31</v>
       </c>
       <c r="R149" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="S149" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="T149" t="s">
         <v>149</v>
@@ -16290,7 +16293,7 @@
     </row>
     <row r="150" spans="1:25">
       <c r="A150" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B150" t="s">
         <v>142</v>
@@ -16341,10 +16344,10 @@
         <v>31</v>
       </c>
       <c r="R150" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="S150" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="T150" t="s">
         <v>149</v>
@@ -16359,15 +16362,15 @@
         <v>31</v>
       </c>
       <c r="X150" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="Y150" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="151" spans="1:25">
       <c r="A151" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B151" t="s">
         <v>26</v>
@@ -16376,13 +16379,13 @@
         <v>27</v>
       </c>
       <c r="D151" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="E151" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="F151" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="G151" t="s">
         <v>73</v>
@@ -16391,7 +16394,7 @@
         <v>31</v>
       </c>
       <c r="I151" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="J151" t="s">
         <v>42</v>
@@ -16400,7 +16403,7 @@
         <v>51</v>
       </c>
       <c r="L151" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="M151" t="s">
         <v>31</v>
@@ -16418,7 +16421,7 @@
         <v>31</v>
       </c>
       <c r="R151" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="S151" t="s">
         <v>31</v>
@@ -16444,7 +16447,7 @@
     </row>
     <row r="152" spans="1:25">
       <c r="A152" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B152" t="s">
         <v>26</v>
@@ -16453,13 +16456,13 @@
         <v>27</v>
       </c>
       <c r="D152" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="E152" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="F152" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="G152" t="s">
         <v>73</v>
@@ -16468,7 +16471,7 @@
         <v>31</v>
       </c>
       <c r="I152" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="J152" t="s">
         <v>42</v>
@@ -16495,7 +16498,7 @@
         <v>31</v>
       </c>
       <c r="R152" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="S152" t="s">
         <v>31</v>
@@ -16521,7 +16524,7 @@
     </row>
     <row r="153" spans="1:25">
       <c r="A153" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B153" t="s">
         <v>26</v>
@@ -16530,13 +16533,13 @@
         <v>27</v>
       </c>
       <c r="D153" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="E153" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="F153" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="G153" t="s">
         <v>73</v>
@@ -16545,7 +16548,7 @@
         <v>31</v>
       </c>
       <c r="I153" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="J153" t="s">
         <v>42</v>
@@ -16569,10 +16572,10 @@
         <v>31</v>
       </c>
       <c r="Q153" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="R153" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="S153" t="s">
         <v>31</v>
@@ -16598,7 +16601,7 @@
     </row>
     <row r="154" spans="1:25">
       <c r="A154" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B154" t="s">
         <v>26</v>
@@ -16607,13 +16610,13 @@
         <v>27</v>
       </c>
       <c r="D154" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="E154" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="F154" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="G154" t="s">
         <v>40</v>
@@ -16622,7 +16625,7 @@
         <v>31</v>
       </c>
       <c r="I154" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="J154" t="s">
         <v>42</v>
@@ -16646,10 +16649,10 @@
         <v>31</v>
       </c>
       <c r="Q154" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="R154" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="S154" t="s">
         <v>31</v>
@@ -16675,7 +16678,7 @@
     </row>
     <row r="155" spans="1:25">
       <c r="A155" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B155" t="s">
         <v>26</v>
@@ -16684,13 +16687,13 @@
         <v>27</v>
       </c>
       <c r="D155" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="E155" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="F155" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="G155" t="s">
         <v>40</v>
@@ -16726,7 +16729,7 @@
         <v>31</v>
       </c>
       <c r="R155" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="S155" t="s">
         <v>31</v>
@@ -16752,25 +16755,25 @@
     </row>
     <row r="156" spans="1:25">
       <c r="A156" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B156" t="s">
         <v>26</v>
       </c>
       <c r="C156" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D156" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="E156" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="F156" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="G156" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="H156" t="s">
         <v>31</v>
@@ -16800,10 +16803,10 @@
         <v>31</v>
       </c>
       <c r="Q156" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="R156" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="S156" t="s">
         <v>31</v>
@@ -16824,12 +16827,12 @@
         <v>61</v>
       </c>
       <c r="Y156" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="157" spans="1:25">
       <c r="A157" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B157" t="s">
         <v>26</v>
@@ -16838,13 +16841,13 @@
         <v>27</v>
       </c>
       <c r="D157" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E157" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="F157" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="G157" t="s">
         <v>73</v>
@@ -16853,10 +16856,10 @@
         <v>31</v>
       </c>
       <c r="I157" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="J157" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="K157" t="s">
         <v>51</v>
@@ -16880,7 +16883,7 @@
         <v>31</v>
       </c>
       <c r="R157" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="S157" t="s">
         <v>31</v>
@@ -16906,7 +16909,7 @@
     </row>
     <row r="158" spans="1:25">
       <c r="A158" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B158" t="s">
         <v>26</v>
@@ -16915,13 +16918,13 @@
         <v>27</v>
       </c>
       <c r="D158" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="E158" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="F158" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="G158" t="s">
         <v>190</v>
@@ -16930,7 +16933,7 @@
         <v>31</v>
       </c>
       <c r="I158" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="J158" t="s">
         <v>42</v>
@@ -16957,7 +16960,7 @@
         <v>31</v>
       </c>
       <c r="R158" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="S158" t="s">
         <v>31</v>
@@ -16983,7 +16986,7 @@
     </row>
     <row r="159" spans="1:25">
       <c r="A159" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B159" t="s">
         <v>26</v>
@@ -16992,10 +16995,10 @@
         <v>153</v>
       </c>
       <c r="D159" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="E159" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="F159" t="s">
         <v>30</v>
@@ -17034,7 +17037,7 @@
         <v>31</v>
       </c>
       <c r="R159" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="S159" t="s">
         <v>31</v>
@@ -17060,7 +17063,7 @@
     </row>
     <row r="160" spans="1:25">
       <c r="A160" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B160" t="s">
         <v>26</v>
@@ -17069,13 +17072,13 @@
         <v>27</v>
       </c>
       <c r="D160" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="E160" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="F160" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="G160" t="s">
         <v>124</v>
@@ -17111,7 +17114,7 @@
         <v>31</v>
       </c>
       <c r="R160" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="S160" t="s">
         <v>31</v>
@@ -17137,7 +17140,7 @@
     </row>
     <row r="161" spans="1:25">
       <c r="A161" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B161" t="s">
         <v>142</v>
@@ -17146,10 +17149,10 @@
         <v>27</v>
       </c>
       <c r="D161" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="E161" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="F161" t="s">
         <v>307</v>
@@ -17188,10 +17191,10 @@
         <v>31</v>
       </c>
       <c r="R161" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="S161" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="T161" t="s">
         <v>149</v>
@@ -17214,7 +17217,7 @@
     </row>
     <row r="162" spans="1:25">
       <c r="A162" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B162" t="s">
         <v>142</v>
@@ -17223,13 +17226,13 @@
         <v>161</v>
       </c>
       <c r="D162" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="E162" t="s">
         <v>38</v>
       </c>
       <c r="F162" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="G162" t="s">
         <v>124</v>
@@ -17259,16 +17262,16 @@
         <v>31</v>
       </c>
       <c r="P162" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="Q162" t="s">
         <v>31</v>
       </c>
       <c r="R162" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="S162" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="T162" t="s">
         <v>31</v>
@@ -17291,7 +17294,7 @@
     </row>
     <row r="163" spans="1:25">
       <c r="A163" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B163" t="s">
         <v>142</v>
@@ -17300,22 +17303,22 @@
         <v>27</v>
       </c>
       <c r="D163" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="E163" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="F163" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="G163" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="H163" t="s">
         <v>31</v>
       </c>
       <c r="I163" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="J163" t="s">
         <v>42</v>
@@ -17342,13 +17345,13 @@
         <v>31</v>
       </c>
       <c r="R163" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="S163" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="T163" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="U163" t="s">
         <v>44</v>
@@ -17360,15 +17363,15 @@
         <v>31</v>
       </c>
       <c r="X163" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="Y163" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="164" spans="1:25">
       <c r="A164" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B164" t="s">
         <v>142</v>
@@ -17377,10 +17380,10 @@
         <v>182</v>
       </c>
       <c r="D164" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="E164" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="F164" t="s">
         <v>307</v>
@@ -17419,10 +17422,10 @@
         <v>31</v>
       </c>
       <c r="R164" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="S164" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="T164" t="s">
         <v>149</v>
@@ -17445,7 +17448,7 @@
     </row>
     <row r="165" spans="1:25">
       <c r="A165" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B165" t="s">
         <v>26</v>
@@ -17454,13 +17457,13 @@
         <v>27</v>
       </c>
       <c r="D165" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="E165" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="F165" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="G165" t="s">
         <v>40</v>
@@ -17469,7 +17472,7 @@
         <v>31</v>
       </c>
       <c r="I165" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="J165" t="s">
         <v>42</v>
@@ -17496,7 +17499,7 @@
         <v>31</v>
       </c>
       <c r="R165" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="S165" t="s">
         <v>31</v>
@@ -17522,7 +17525,7 @@
     </row>
     <row r="166" spans="1:25">
       <c r="A166" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B166" t="s">
         <v>26</v>
@@ -17531,13 +17534,13 @@
         <v>27</v>
       </c>
       <c r="D166" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="E166" t="s">
         <v>38</v>
       </c>
       <c r="F166" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="G166" t="s">
         <v>67</v>
@@ -17546,7 +17549,7 @@
         <v>31</v>
       </c>
       <c r="I166" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="J166" t="s">
         <v>42</v>
@@ -17573,7 +17576,7 @@
         <v>31</v>
       </c>
       <c r="R166" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="S166" t="s">
         <v>31</v>
@@ -17599,7 +17602,7 @@
     </row>
     <row r="167" spans="1:25">
       <c r="A167" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B167" t="s">
         <v>26</v>
@@ -17608,13 +17611,13 @@
         <v>27</v>
       </c>
       <c r="D167" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="E167" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="F167" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="G167" t="s">
         <v>73</v>
@@ -17623,7 +17626,7 @@
         <v>31</v>
       </c>
       <c r="I167" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="J167" t="s">
         <v>42</v>
@@ -17650,7 +17653,7 @@
         <v>31</v>
       </c>
       <c r="R167" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="S167" t="s">
         <v>31</v>
@@ -17676,7 +17679,7 @@
     </row>
     <row r="168" spans="1:25">
       <c r="A168" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B168" t="s">
         <v>26</v>
@@ -17685,10 +17688,10 @@
         <v>27</v>
       </c>
       <c r="D168" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="E168" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="F168" t="s">
         <v>72</v>
@@ -17700,7 +17703,7 @@
         <v>31</v>
       </c>
       <c r="I168" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="J168" t="s">
         <v>42</v>
@@ -17727,7 +17730,7 @@
         <v>31</v>
       </c>
       <c r="R168" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="S168" t="s">
         <v>31</v>
@@ -17753,7 +17756,7 @@
     </row>
     <row r="169" spans="1:25">
       <c r="A169" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B169" t="s">
         <v>142</v>
@@ -17762,13 +17765,13 @@
         <v>27</v>
       </c>
       <c r="D169" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="E169" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="F169" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="G169" t="s">
         <v>40</v>
@@ -17777,7 +17780,7 @@
         <v>31</v>
       </c>
       <c r="I169" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="J169" t="s">
         <v>42</v>
@@ -17804,10 +17807,10 @@
         <v>31</v>
       </c>
       <c r="R169" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="S169" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="T169" t="s">
         <v>507</v>
@@ -17825,12 +17828,12 @@
         <v>150</v>
       </c>
       <c r="Y169" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="170" spans="1:25">
       <c r="A170" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B170" t="s">
         <v>26</v>
@@ -17839,13 +17842,13 @@
         <v>27</v>
       </c>
       <c r="D170" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="E170" t="s">
         <v>38</v>
       </c>
       <c r="F170" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="G170" t="s">
         <v>124</v>
@@ -17881,7 +17884,7 @@
         <v>31</v>
       </c>
       <c r="R170" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="S170" t="s">
         <v>31</v>
@@ -17907,7 +17910,7 @@
     </row>
     <row r="171" spans="1:25">
       <c r="A171" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B171" t="s">
         <v>26</v>
@@ -17916,7 +17919,7 @@
         <v>27</v>
       </c>
       <c r="D171" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="E171" t="s">
         <v>38</v>
@@ -17958,7 +17961,7 @@
         <v>31</v>
       </c>
       <c r="R171" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="S171" t="s">
         <v>31</v>
@@ -17984,22 +17987,22 @@
     </row>
     <row r="172" spans="1:25">
       <c r="A172" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B172" t="s">
         <v>142</v>
       </c>
       <c r="C172" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="D172" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="E172" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="F172" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="G172" t="s">
         <v>40</v>
@@ -18035,10 +18038,10 @@
         <v>31</v>
       </c>
       <c r="R172" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="S172" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="T172" t="s">
         <v>149</v>
@@ -18061,19 +18064,19 @@
     </row>
     <row r="173" spans="1:25">
       <c r="A173" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B173" t="s">
         <v>429</v>
       </c>
       <c r="C173" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="D173" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="E173" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="F173" t="s">
         <v>72</v>
@@ -18112,7 +18115,7 @@
         <v>31</v>
       </c>
       <c r="R173" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="S173" t="s">
         <v>31</v>
@@ -18138,19 +18141,19 @@
     </row>
     <row r="174" spans="1:25">
       <c r="A174" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B174" t="s">
         <v>429</v>
       </c>
       <c r="C174" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="D174" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="E174" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="F174" t="s">
         <v>72</v>
@@ -18186,10 +18189,10 @@
         <v>31</v>
       </c>
       <c r="Q174" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="R174" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="S174" t="s">
         <v>31</v>
@@ -18215,7 +18218,7 @@
     </row>
     <row r="175" spans="1:25">
       <c r="A175" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B175" t="s">
         <v>26</v>
@@ -18224,16 +18227,16 @@
         <v>27</v>
       </c>
       <c r="D175" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="E175" t="s">
         <v>38</v>
       </c>
       <c r="F175" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="G175" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="H175" t="s">
         <v>31</v>
@@ -18242,13 +18245,13 @@
         <v>31</v>
       </c>
       <c r="J175" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="K175" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="L175" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="M175" t="s">
         <v>31</v>
@@ -18263,10 +18266,10 @@
         <v>31</v>
       </c>
       <c r="Q175" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="R175" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="S175" t="s">
         <v>31</v>
@@ -18292,7 +18295,7 @@
     </row>
     <row r="176" spans="1:25">
       <c r="A176" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B176" t="s">
         <v>26</v>
@@ -18301,13 +18304,13 @@
         <v>27</v>
       </c>
       <c r="D176" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="E176" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="F176" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="G176" t="s">
         <v>73</v>
@@ -18316,7 +18319,7 @@
         <v>31</v>
       </c>
       <c r="I176" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="J176" t="s">
         <v>42</v>
@@ -18325,7 +18328,7 @@
         <v>51</v>
       </c>
       <c r="L176" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="M176" t="s">
         <v>31</v>
@@ -18343,7 +18346,7 @@
         <v>31</v>
       </c>
       <c r="R176" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="S176" t="s">
         <v>31</v>
@@ -18369,7 +18372,7 @@
     </row>
     <row r="177" spans="1:25">
       <c r="A177" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="B177" t="s">
         <v>26</v>
@@ -18378,13 +18381,13 @@
         <v>27</v>
       </c>
       <c r="D177" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="E177" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="F177" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="G177" t="s">
         <v>40</v>
@@ -18393,7 +18396,7 @@
         <v>31</v>
       </c>
       <c r="I177" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="J177" t="s">
         <v>42</v>
@@ -18420,7 +18423,7 @@
         <v>31</v>
       </c>
       <c r="R177" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="S177" t="s">
         <v>31</v>
@@ -18446,7 +18449,7 @@
     </row>
     <row r="178" spans="1:25">
       <c r="A178" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="B178" t="s">
         <v>26</v>
@@ -18455,10 +18458,10 @@
         <v>235</v>
       </c>
       <c r="D178" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="E178" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="F178" t="s">
         <v>83</v>
@@ -18494,10 +18497,10 @@
         <v>31</v>
       </c>
       <c r="Q178" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="R178" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="S178" t="s">
         <v>31</v>
@@ -18523,7 +18526,7 @@
     </row>
     <row r="179" spans="1:25">
       <c r="A179" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B179" t="s">
         <v>142</v>
@@ -18532,13 +18535,13 @@
         <v>27</v>
       </c>
       <c r="D179" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="E179" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="F179" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="G179" t="s">
         <v>40</v>
@@ -18556,7 +18559,7 @@
         <v>51</v>
       </c>
       <c r="L179" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="M179" t="s">
         <v>31</v>
@@ -18577,7 +18580,7 @@
         <v>31</v>
       </c>
       <c r="S179" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="T179" t="s">
         <v>31</v>
@@ -18600,7 +18603,7 @@
     </row>
     <row r="180" spans="1:25">
       <c r="A180" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B180" t="s">
         <v>142</v>
@@ -18609,13 +18612,13 @@
         <v>27</v>
       </c>
       <c r="D180" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="E180" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="F180" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="G180" t="s">
         <v>40</v>
@@ -18654,7 +18657,7 @@
         <v>31</v>
       </c>
       <c r="S180" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="T180" t="s">
         <v>31</v>
@@ -18677,7 +18680,7 @@
     </row>
     <row r="181" spans="1:25">
       <c r="A181" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B181" t="s">
         <v>26</v>
@@ -18686,10 +18689,10 @@
         <v>27</v>
       </c>
       <c r="D181" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="E181" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="F181" t="s">
         <v>307</v>
@@ -18701,7 +18704,7 @@
         <v>31</v>
       </c>
       <c r="I181" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="J181" t="s">
         <v>42</v>
@@ -18728,7 +18731,7 @@
         <v>31</v>
       </c>
       <c r="R181" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="S181" t="s">
         <v>31</v>
@@ -18754,7 +18757,7 @@
     </row>
     <row r="182" spans="1:25">
       <c r="A182" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="B182" t="s">
         <v>142</v>
@@ -18763,13 +18766,13 @@
         <v>27</v>
       </c>
       <c r="D182" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="E182" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="F182" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="G182" t="s">
         <v>40</v>
@@ -18805,10 +18808,10 @@
         <v>31</v>
       </c>
       <c r="R182" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="S182" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="T182" t="s">
         <v>149</v>
@@ -18826,12 +18829,12 @@
         <v>150</v>
       </c>
       <c r="Y182" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="183" spans="1:25">
       <c r="A183" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B183" t="s">
         <v>26</v>
@@ -18840,10 +18843,10 @@
         <v>235</v>
       </c>
       <c r="D183" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="E183" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="F183" t="s">
         <v>530</v>
@@ -18882,7 +18885,7 @@
         <v>31</v>
       </c>
       <c r="R183" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="S183" t="s">
         <v>31</v>
@@ -18900,7 +18903,7 @@
         <v>31</v>
       </c>
       <c r="X183" t="s">
-        <v>1165</v>
+        <v>609</v>
       </c>
       <c r="Y183" t="s">
         <v>1166</v>
@@ -19054,7 +19057,7 @@
         <v>31</v>
       </c>
       <c r="X185" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="Y185" t="s">
         <v>1177</v>
@@ -19157,7 +19160,7 @@
         <v>1187</v>
       </c>
       <c r="G187" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H187" t="s">
         <v>31</v>
@@ -19169,7 +19172,7 @@
         <v>1188</v>
       </c>
       <c r="K187" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="L187" t="s">
         <v>31</v>
@@ -19234,7 +19237,7 @@
         <v>1195</v>
       </c>
       <c r="G188" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H188" t="s">
         <v>31</v>
@@ -19293,7 +19296,7 @@
     </row>
     <row r="189" spans="1:25">
       <c r="A189" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B189" t="s">
         <v>142</v>
@@ -19302,16 +19305,16 @@
         <v>27</v>
       </c>
       <c r="D189" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="E189" t="s">
         <v>1202</v>
       </c>
       <c r="F189" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G189" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H189" t="s">
         <v>31</v>
@@ -19338,7 +19341,7 @@
         <v>31</v>
       </c>
       <c r="P189" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="Q189" t="s">
         <v>1203</v>
@@ -19462,7 +19465,7 @@
         <v>1216</v>
       </c>
       <c r="F191" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="G191" t="s">
         <v>124</v>
@@ -19498,7 +19501,7 @@
         <v>31</v>
       </c>
       <c r="R191" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="S191" t="s">
         <v>31</v>
@@ -19747,7 +19750,7 @@
         <v>31</v>
       </c>
       <c r="X194" t="s">
-        <v>1165</v>
+        <v>609</v>
       </c>
       <c r="Y194" t="s">
         <v>1230</v>
@@ -19862,7 +19865,7 @@
         <v>42</v>
       </c>
       <c r="K196" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="L196" t="s">
         <v>31</v>
@@ -19995,7 +19998,7 @@
         <v>27</v>
       </c>
       <c r="D198" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E198" t="s">
         <v>1251</v>
@@ -20300,7 +20303,7 @@
         <v>26</v>
       </c>
       <c r="C202" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D202" t="s">
         <v>1273</v>
@@ -20371,7 +20374,7 @@
     </row>
     <row r="203" spans="1:25">
       <c r="A203" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B203" t="s">
         <v>142</v>
@@ -20416,7 +20419,7 @@
         <v>31</v>
       </c>
       <c r="P203" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="Q203" t="s">
         <v>31</v>
@@ -20499,7 +20502,7 @@
         <v>1288</v>
       </c>
       <c r="R204" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="S204" t="s">
         <v>31</v>
@@ -20517,15 +20520,15 @@
         <v>31</v>
       </c>
       <c r="X204" t="s">
-        <v>579</v>
+        <v>1289</v>
       </c>
       <c r="Y204" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="205" spans="1:25">
       <c r="A205" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="B205" t="s">
         <v>26</v>
@@ -20534,13 +20537,13 @@
         <v>235</v>
       </c>
       <c r="D205" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="E205" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="F205" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="G205" t="s">
         <v>84</v>
@@ -20549,7 +20552,7 @@
         <v>31</v>
       </c>
       <c r="I205" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="J205" t="s">
         <v>42</v>
@@ -20573,10 +20576,10 @@
         <v>31</v>
       </c>
       <c r="Q205" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="R205" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="S205" t="s">
         <v>31</v>
@@ -20602,7 +20605,7 @@
     </row>
     <row r="206" spans="1:25">
       <c r="A206" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="B206" t="s">
         <v>142</v>
@@ -20611,13 +20614,13 @@
         <v>27</v>
       </c>
       <c r="D206" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="E206" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="F206" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="G206" t="s">
         <v>40</v>
@@ -20653,10 +20656,10 @@
         <v>31</v>
       </c>
       <c r="R206" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="S206" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="T206" t="s">
         <v>31</v>
@@ -20679,7 +20682,7 @@
     </row>
     <row r="207" spans="1:25">
       <c r="A207" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="B207" t="s">
         <v>26</v>
@@ -20688,10 +20691,10 @@
         <v>235</v>
       </c>
       <c r="D207" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="E207" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="F207" t="s">
         <v>298</v>
@@ -20703,7 +20706,7 @@
         <v>31</v>
       </c>
       <c r="I207" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="J207" t="s">
         <v>42</v>
@@ -20730,7 +20733,7 @@
         <v>31</v>
       </c>
       <c r="R207" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="S207" t="s">
         <v>31</v>
@@ -20751,12 +20754,12 @@
         <v>61</v>
       </c>
       <c r="Y207" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="208" spans="1:25">
       <c r="A208" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="B208" t="s">
         <v>26</v>
@@ -20765,7 +20768,7 @@
         <v>27</v>
       </c>
       <c r="D208" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="E208" t="s">
         <v>38</v>
@@ -20804,10 +20807,10 @@
         <v>31</v>
       </c>
       <c r="Q208" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="R208" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="S208" t="s">
         <v>31</v>
@@ -20833,7 +20836,7 @@
     </row>
     <row r="209" spans="1:25">
       <c r="A209" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="B209" t="s">
         <v>26</v>
@@ -20842,13 +20845,13 @@
         <v>27</v>
       </c>
       <c r="D209" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="E209" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="F209" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="G209" t="s">
         <v>40</v>
@@ -20857,7 +20860,7 @@
         <v>31</v>
       </c>
       <c r="I209" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="J209" t="s">
         <v>42</v>
@@ -20884,7 +20887,7 @@
         <v>31</v>
       </c>
       <c r="R209" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="S209" t="s">
         <v>31</v>
@@ -20910,7 +20913,7 @@
     </row>
     <row r="210" spans="1:25">
       <c r="A210" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="B210" t="s">
         <v>142</v>
@@ -20919,13 +20922,13 @@
         <v>27</v>
       </c>
       <c r="D210" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="E210" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="F210" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="G210" t="s">
         <v>40</v>
@@ -20934,7 +20937,7 @@
         <v>31</v>
       </c>
       <c r="I210" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="J210" t="s">
         <v>42</v>
@@ -20958,13 +20961,13 @@
         <v>31</v>
       </c>
       <c r="Q210" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="R210" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="S210" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="T210" t="s">
         <v>149</v>
@@ -20987,7 +20990,7 @@
     </row>
     <row r="211" spans="1:25">
       <c r="A211" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="B211" t="s">
         <v>26</v>
@@ -20996,13 +20999,13 @@
         <v>27</v>
       </c>
       <c r="D211" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="E211" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="F211" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="G211" t="s">
         <v>124</v>
@@ -21038,7 +21041,7 @@
         <v>31</v>
       </c>
       <c r="R211" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="S211" t="s">
         <v>31</v>
@@ -21064,7 +21067,7 @@
     </row>
     <row r="212" spans="1:25">
       <c r="A212" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="B212" t="s">
         <v>26</v>
@@ -21073,22 +21076,22 @@
         <v>27</v>
       </c>
       <c r="D212" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="E212" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="F212" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="G212" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H212" t="s">
         <v>31</v>
       </c>
       <c r="I212" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="J212" t="s">
         <v>31</v>
@@ -21115,7 +21118,7 @@
         <v>31</v>
       </c>
       <c r="R212" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="S212" t="s">
         <v>31</v>
@@ -21141,7 +21144,7 @@
     </row>
     <row r="213" spans="1:25">
       <c r="A213" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="B213" t="s">
         <v>26</v>
@@ -21150,10 +21153,10 @@
         <v>235</v>
       </c>
       <c r="D213" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="E213" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="F213" t="s">
         <v>30</v>
@@ -21165,7 +21168,7 @@
         <v>31</v>
       </c>
       <c r="I213" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="J213" t="s">
         <v>42</v>
@@ -21192,7 +21195,7 @@
         <v>31</v>
       </c>
       <c r="R213" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="S213" t="s">
         <v>31</v>
@@ -21213,12 +21216,12 @@
         <v>319</v>
       </c>
       <c r="Y213" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="214" spans="1:25">
       <c r="A214" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="B214" t="s">
         <v>26</v>
@@ -21227,13 +21230,13 @@
         <v>27</v>
       </c>
       <c r="D214" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="E214" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="F214" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="G214" t="s">
         <v>73</v>
@@ -21242,7 +21245,7 @@
         <v>31</v>
       </c>
       <c r="I214" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="J214" t="s">
         <v>31</v>
@@ -21269,7 +21272,7 @@
         <v>31</v>
       </c>
       <c r="R214" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="S214" t="s">
         <v>31</v>
@@ -21295,7 +21298,7 @@
     </row>
     <row r="215" spans="1:25">
       <c r="A215" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="B215" t="s">
         <v>142</v>
@@ -21304,13 +21307,13 @@
         <v>27</v>
       </c>
       <c r="D215" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="E215" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="F215" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="G215" t="s">
         <v>40</v>
@@ -21349,7 +21352,7 @@
         <v>31</v>
       </c>
       <c r="S215" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="T215" t="s">
         <v>31</v>
@@ -21372,7 +21375,7 @@
     </row>
     <row r="216" spans="1:25">
       <c r="A216" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="B216" t="s">
         <v>26</v>
@@ -21381,13 +21384,13 @@
         <v>88</v>
       </c>
       <c r="D216" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="E216" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="F216" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="G216" t="s">
         <v>84</v>
@@ -21423,7 +21426,7 @@
         <v>31</v>
       </c>
       <c r="R216" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="S216" t="s">
         <v>31</v>
@@ -21449,7 +21452,7 @@
     </row>
     <row r="217" spans="1:25">
       <c r="A217" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="B217" t="s">
         <v>26</v>
@@ -21458,13 +21461,13 @@
         <v>235</v>
       </c>
       <c r="D217" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="E217" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="F217" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="G217" t="s">
         <v>84</v>
@@ -21497,10 +21500,10 @@
         <v>31</v>
       </c>
       <c r="Q217" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="R217" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="S217" t="s">
         <v>31</v>
@@ -21521,12 +21524,12 @@
         <v>61</v>
       </c>
       <c r="Y217" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="218" spans="1:25">
       <c r="A218" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="B218" t="s">
         <v>26</v>
@@ -21535,22 +21538,22 @@
         <v>27</v>
       </c>
       <c r="D218" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="E218" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="F218" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="G218" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="H218" t="s">
         <v>31</v>
       </c>
       <c r="I218" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="J218" t="s">
         <v>42</v>
@@ -21577,7 +21580,7 @@
         <v>31</v>
       </c>
       <c r="R218" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="S218" t="s">
         <v>31</v>
@@ -21603,7 +21606,7 @@
     </row>
     <row r="219" spans="1:25">
       <c r="A219" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="B219" t="s">
         <v>26</v>
@@ -21612,13 +21615,13 @@
         <v>27</v>
       </c>
       <c r="D219" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="E219" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="F219" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="G219" t="s">
         <v>40</v>
@@ -21651,10 +21654,10 @@
         <v>31</v>
       </c>
       <c r="Q219" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="R219" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="S219" t="s">
         <v>31</v>
@@ -21680,7 +21683,7 @@
     </row>
     <row r="220" spans="1:25">
       <c r="A220" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="B220" t="s">
         <v>142</v>
@@ -21689,13 +21692,13 @@
         <v>27</v>
       </c>
       <c r="D220" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="E220" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="F220" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="G220" t="s">
         <v>40</v>
@@ -21734,7 +21737,7 @@
         <v>31</v>
       </c>
       <c r="S220" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="T220" t="s">
         <v>31</v>
@@ -21757,7 +21760,7 @@
     </row>
     <row r="221" spans="1:25">
       <c r="A221" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="B221" t="s">
         <v>26</v>
@@ -21766,13 +21769,13 @@
         <v>235</v>
       </c>
       <c r="D221" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="E221" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="F221" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="G221" t="s">
         <v>84</v>
@@ -21808,7 +21811,7 @@
         <v>31</v>
       </c>
       <c r="R221" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="S221" t="s">
         <v>31</v>
@@ -21826,15 +21829,15 @@
         <v>31</v>
       </c>
       <c r="X221" t="s">
-        <v>1165</v>
+        <v>609</v>
       </c>
       <c r="Y221" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="222" spans="1:25">
       <c r="A222" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="B222" t="s">
         <v>26</v>
@@ -21843,22 +21846,22 @@
         <v>27</v>
       </c>
       <c r="D222" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="E222" t="s">
         <v>38</v>
       </c>
       <c r="F222" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="G222" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="H222" t="s">
         <v>31</v>
       </c>
       <c r="I222" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="J222" t="s">
         <v>42</v>
@@ -21882,10 +21885,10 @@
         <v>31</v>
       </c>
       <c r="Q222" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="R222" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="S222" t="s">
         <v>31</v>
@@ -21911,7 +21914,7 @@
     </row>
     <row r="223" spans="1:25">
       <c r="A223" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="B223" t="s">
         <v>142</v>
@@ -21920,13 +21923,13 @@
         <v>27</v>
       </c>
       <c r="D223" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="E223" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="F223" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="G223" t="s">
         <v>124</v>
@@ -21935,7 +21938,7 @@
         <v>31</v>
       </c>
       <c r="I223" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="J223" t="s">
         <v>42</v>
@@ -21962,10 +21965,10 @@
         <v>31</v>
       </c>
       <c r="R223" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="S223" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="T223" t="s">
         <v>149</v>
@@ -21988,7 +21991,7 @@
     </row>
     <row r="224" spans="1:25">
       <c r="A224" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="B224" t="s">
         <v>26</v>
@@ -21997,13 +22000,13 @@
         <v>27</v>
       </c>
       <c r="D224" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="E224" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="F224" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="G224" t="s">
         <v>40</v>
@@ -22012,10 +22015,10 @@
         <v>31</v>
       </c>
       <c r="I224" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="J224" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="K224" t="s">
         <v>51</v>
@@ -22036,10 +22039,10 @@
         <v>31</v>
       </c>
       <c r="Q224" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="R224" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="S224" t="s">
         <v>31</v>
@@ -22065,7 +22068,7 @@
     </row>
     <row r="225" spans="1:25">
       <c r="A225" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="B225" t="s">
         <v>26</v>
@@ -22077,7 +22080,7 @@
         <v>582</v>
       </c>
       <c r="E225" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="F225" t="s">
         <v>83</v>
@@ -22092,7 +22095,7 @@
         <v>31</v>
       </c>
       <c r="J225" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="K225" t="s">
         <v>51</v>
@@ -22116,7 +22119,7 @@
         <v>31</v>
       </c>
       <c r="R225" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="S225" t="s">
         <v>31</v>
@@ -22142,7 +22145,7 @@
     </row>
     <row r="226" spans="1:25">
       <c r="A226" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="B226" t="s">
         <v>142</v>
@@ -22151,10 +22154,10 @@
         <v>27</v>
       </c>
       <c r="D226" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="E226" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="F226" t="s">
         <v>83</v>
@@ -22193,10 +22196,10 @@
         <v>31</v>
       </c>
       <c r="R226" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="S226" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="T226" t="s">
         <v>149</v>
@@ -22219,7 +22222,7 @@
     </row>
     <row r="227" spans="1:25">
       <c r="A227" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B227" t="s">
         <v>142</v>
@@ -22228,13 +22231,13 @@
         <v>27</v>
       </c>
       <c r="D227" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="E227" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="F227" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="G227" t="s">
         <v>384</v>
@@ -22243,7 +22246,7 @@
         <v>31</v>
       </c>
       <c r="I227" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="J227" t="s">
         <v>42</v>
@@ -22270,13 +22273,13 @@
         <v>31</v>
       </c>
       <c r="R227" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="S227" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="T227" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="U227" t="s">
         <v>44</v>
@@ -22288,15 +22291,15 @@
         <v>31</v>
       </c>
       <c r="X227" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="Y227" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="228" spans="1:25">
       <c r="A228" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="B228" t="s">
         <v>26</v>
@@ -22305,13 +22308,13 @@
         <v>27</v>
       </c>
       <c r="D228" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="E228" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="F228" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="G228" t="s">
         <v>73</v>
@@ -22320,13 +22323,13 @@
         <v>31</v>
       </c>
       <c r="I228" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="J228" t="s">
         <v>31</v>
       </c>
       <c r="K228" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="L228" t="s">
         <v>31</v>
@@ -22344,10 +22347,10 @@
         <v>31</v>
       </c>
       <c r="Q228" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="R228" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="S228" t="s">
         <v>31</v>
@@ -22373,7 +22376,7 @@
     </row>
     <row r="229" spans="1:25">
       <c r="A229" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="B229" t="s">
         <v>26</v>
@@ -22382,13 +22385,13 @@
         <v>27</v>
       </c>
       <c r="D229" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="E229" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="F229" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="G229" t="s">
         <v>40</v>
@@ -22397,7 +22400,7 @@
         <v>31</v>
       </c>
       <c r="I229" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="J229" t="s">
         <v>42</v>
@@ -22424,7 +22427,7 @@
         <v>31</v>
       </c>
       <c r="R229" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="S229" t="s">
         <v>31</v>
@@ -22450,7 +22453,7 @@
     </row>
     <row r="230" spans="1:25">
       <c r="A230" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="B230" t="s">
         <v>26</v>
@@ -22459,13 +22462,13 @@
         <v>88</v>
       </c>
       <c r="D230" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="E230" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="F230" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="G230" t="s">
         <v>157</v>
@@ -22474,7 +22477,7 @@
         <v>31</v>
       </c>
       <c r="I230" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="J230" t="s">
         <v>42</v>
@@ -22501,7 +22504,7 @@
         <v>31</v>
       </c>
       <c r="R230" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="S230" t="s">
         <v>31</v>
@@ -22527,7 +22530,7 @@
     </row>
     <row r="231" spans="1:25">
       <c r="A231" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="B231" t="s">
         <v>142</v>
@@ -22536,13 +22539,13 @@
         <v>27</v>
       </c>
       <c r="D231" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="E231" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="F231" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="G231" t="s">
         <v>84</v>
@@ -22581,7 +22584,7 @@
         <v>31</v>
       </c>
       <c r="S231" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="T231" t="s">
         <v>149</v>
@@ -22604,7 +22607,7 @@
     </row>
     <row r="232" spans="1:25">
       <c r="A232" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="B232" t="s">
         <v>26</v>
@@ -22613,10 +22616,10 @@
         <v>88</v>
       </c>
       <c r="D232" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="E232" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="F232" t="s">
         <v>298</v>
@@ -22655,7 +22658,7 @@
         <v>31</v>
       </c>
       <c r="R232" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="S232" t="s">
         <v>31</v>
@@ -22676,12 +22679,12 @@
         <v>61</v>
       </c>
       <c r="Y232" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="233" spans="1:25">
       <c r="A233" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="B233" t="s">
         <v>142</v>
@@ -22690,22 +22693,22 @@
         <v>27</v>
       </c>
       <c r="D233" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="E233" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="F233" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="G233" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="H233" t="s">
         <v>31</v>
       </c>
       <c r="I233" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="J233" t="s">
         <v>42</v>
@@ -22732,10 +22735,10 @@
         <v>31</v>
       </c>
       <c r="R233" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="S233" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="T233" t="s">
         <v>507</v>
@@ -22758,7 +22761,7 @@
     </row>
     <row r="234" spans="1:25">
       <c r="A234" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="B234" t="s">
         <v>142</v>
@@ -22767,13 +22770,13 @@
         <v>27</v>
       </c>
       <c r="D234" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="E234" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="F234" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="G234" t="s">
         <v>67</v>
@@ -22782,7 +22785,7 @@
         <v>31</v>
       </c>
       <c r="I234" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="J234" t="s">
         <v>42</v>
@@ -22809,10 +22812,10 @@
         <v>31</v>
       </c>
       <c r="R234" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="S234" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="T234" t="s">
         <v>507</v>
@@ -22835,7 +22838,7 @@
     </row>
     <row r="235" spans="1:25">
       <c r="A235" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B235" t="s">
         <v>142</v>
@@ -22844,13 +22847,13 @@
         <v>27</v>
       </c>
       <c r="D235" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="E235" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="F235" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="G235" t="s">
         <v>40</v>
@@ -22859,7 +22862,7 @@
         <v>31</v>
       </c>
       <c r="I235" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="J235" t="s">
         <v>42</v>
@@ -22886,10 +22889,10 @@
         <v>31</v>
       </c>
       <c r="R235" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="S235" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="T235" t="s">
         <v>31</v>
@@ -22907,12 +22910,12 @@
         <v>61</v>
       </c>
       <c r="Y235" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="236" spans="1:25">
       <c r="A236" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="B236" t="s">
         <v>26</v>
@@ -22921,13 +22924,13 @@
         <v>27</v>
       </c>
       <c r="D236" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E236" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="F236" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="G236" t="s">
         <v>157</v>
@@ -22963,7 +22966,7 @@
         <v>31</v>
       </c>
       <c r="R236" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="S236" t="s">
         <v>31</v>
@@ -22989,7 +22992,7 @@
     </row>
     <row r="237" spans="1:25">
       <c r="A237" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="B237" t="s">
         <v>142</v>
@@ -22998,13 +23001,13 @@
         <v>27</v>
       </c>
       <c r="D237" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="E237" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="F237" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="G237" t="s">
         <v>40</v>
@@ -23022,7 +23025,7 @@
         <v>33</v>
       </c>
       <c r="L237" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="M237" t="s">
         <v>31</v>
@@ -23040,10 +23043,10 @@
         <v>31</v>
       </c>
       <c r="R237" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="S237" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="T237" t="s">
         <v>31</v>
@@ -23066,7 +23069,7 @@
     </row>
     <row r="238" spans="1:25">
       <c r="A238" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="B238" t="s">
         <v>26</v>
@@ -23075,13 +23078,13 @@
         <v>27</v>
       </c>
       <c r="D238" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="E238" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="F238" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="G238" t="s">
         <v>73</v>
@@ -23090,7 +23093,7 @@
         <v>31</v>
       </c>
       <c r="I238" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="J238" t="s">
         <v>42</v>
@@ -23117,7 +23120,7 @@
         <v>31</v>
       </c>
       <c r="R238" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="S238" t="s">
         <v>31</v>
@@ -23143,7 +23146,7 @@
     </row>
     <row r="239" spans="1:25">
       <c r="A239" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="B239" t="s">
         <v>26</v>
@@ -23152,10 +23155,10 @@
         <v>27</v>
       </c>
       <c r="D239" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="E239" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="F239" t="s">
         <v>123</v>
@@ -23167,7 +23170,7 @@
         <v>31</v>
       </c>
       <c r="I239" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="J239" t="s">
         <v>42</v>
@@ -23194,7 +23197,7 @@
         <v>31</v>
       </c>
       <c r="R239" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="S239" t="s">
         <v>31</v>
